--- a/tests/traces/mi300/google_owlv2-large-patch14-ensemble__1016001_perf_report.xlsx
+++ b/tests/traces/mi300/google_owlv2-large-patch14-ensemble__1016001_perf_report.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="gpu_timeline" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ops_summary_by_category" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ops_summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ops_unique_args" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GEMM" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CONV_fwd" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="UnaryElementwise" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="BinaryElementwise" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gpu_timeline" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ops_summary_by_category" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ops_summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ops_unique_args" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEMM" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONV_fwd" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UnaryElementwise" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BinaryElementwise" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1527,12 +1527,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::cunn_SoftMaxForwardReg&lt;c10::BFloat16, float, c10::BFloat16, at::native::(anonymous namespace)::SoftMaxForwardEpilogue, long, 6&gt;(c10::BFloat16*, c10::BFloat16 const*, long)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(153698.475), 'mean_duration_us': np.float64(1280.820625), 'median_duration_us': np.float64(1270.1954999999998), 'std_dev_duration_us': np.float64(53.79270149209564), 'min_duration_us': np.float64(1151.523), 'max_duration_us': np.float64(1475.988)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::cunn_SoftMaxForwardReg&lt;c10::BFloat16, float, c10::BFloat16, at::native::(anonymous namespace)::SoftMaxForwardEpilogue, long, 6&gt;(c10::BFloat16*, c10::BFloat16 const*, long)', 'stream': 0, 'count': 120, 'total_duration_us': 153698.475, 'mean_duration_us': 1280.820625, 'median_duration_us': 1270.1954999999998, 'std_dev_duration_us': 53.79270149209564, 'min_duration_us': 1151.523, 'max_duration_us': 1475.988}]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::cunn_SoftMaxForwardReg&lt;c...', 'stream': 0, 'mean_duration_us': np.float64(1280.82)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::cunn_SoftMaxForwardReg&lt;c...', 'stream': 0, 'mean_duration_us': 1280.82}]</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA1024_LBSPPB128_LBSPPM0_LPA32_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT2_9_MO40_NTn1_NTA0_NTB4_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW2_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA2_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(55056.329), 'mean_duration_us': np.float64(458.80274166666663), 'median_duration_us': np.float64(459.394), 'std_dev_duration_us': np.float64(39.331859811628505), 'min_duration_us': np.float64(399.316), 'max_duration_us': np.float64(559.804)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA1024_LBSPPB128_LBSPPM0_LPA32_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT2_9_MO40_NTn1_NTA0_NTB4_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW2_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA2_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 55056.329, 'mean_duration_us': 458.80274166666663, 'median_duration_us': 459.394, 'std_dev_duration_us': 39.331859811628505, 'min_duration_us': 399.316, 'max_duration_us': 559.804}]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(458.8)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x1...', 'stream': 0, 'mean_duration_us': 458.8}]</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA2_GRVWB2_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB256_LBSPPM0_LPA4_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT8_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW8_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA8_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(40460.247), 'mean_duration_us': np.float64(337.16872500000005), 'median_duration_us': np.float64(331.821), 'std_dev_duration_us': np.float64(11.541609001032239), 'min_duration_us': np.float64(322.5), 'max_duration_us': np.float64(377.545)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA2_GRVWB2_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB256_LBSPPM0_LPA4_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT8_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW8_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA8_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 40460.247, 'mean_duration_us': 337.16872500000005, 'median_duration_us': 331.821, 'std_dev_duration_us': 11.541609001032239, 'min_duration_us': 322.5, 'max_duration_us': 377.545}]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(337.17)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x...', 'stream': 0, 'mean_duration_us': 337.17}]</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 480, 'total_duration_us': np.float64(15205.791000000001), 'mean_duration_us': np.float64(31.678731250000002), 'median_duration_us': np.float64(31.2305), 'std_dev_duration_us': np.float64(1.291014259160901), 'min_duration_us': np.float64(29.667), 'max_duration_us': np.float64(38.488)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 480, 'total_duration_us': 15205.791000000001, 'mean_duration_us': 31.678731250000002, 'median_duration_us': 31.2305, 'std_dev_duration_us': 1.291014259160901, 'min_duration_us': 29.667, 'max_duration_us': 38.488}]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(31.68)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': 31.68}]</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT5_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(12190.582999999999), 'mean_duration_us': np.float64(101.58819166666666), 'median_duration_us': np.float64(101.071), 'std_dev_duration_us': np.float64(2.68756934575908), 'min_duration_us': np.float64(96.981), 'max_duration_us': np.float64(110.813)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT5_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 12190.582999999999, 'mean_duration_us': 101.58819166666666, 'median_duration_us': 101.071, 'std_dev_duration_us': 2.68756934575908, 'min_duration_us': 96.981, 'max_duration_us': 110.813}]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(101.59)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x...', 'stream': 0, 'mean_duration_us': 101.59}]</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_9_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(11587.363), 'mean_duration_us': np.float64(96.56135833333333), 'median_duration_us': np.float64(95.899), 'std_dev_duration_us': np.float64(2.207858184590643), 'min_duration_us': np.float64(93.814), 'max_duration_us': np.float64(105.121)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_9_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 11587.363, 'mean_duration_us': 96.56135833333333, 'median_duration_us': 95.899, 'std_dev_duration_us': 2.207858184590643, 'min_duration_us': 93.814, 'max_duration_us': 105.121}]</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(96.56)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x...', 'stream': 0, 'mean_duration_us': 96.56}]</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 360, 'total_duration_us': np.float64(6226.331), 'mean_duration_us': np.float64(17.29536388888889), 'median_duration_us': np.float64(15.795), 'std_dev_duration_us': np.float64(2.8259221431687647), 'min_duration_us': np.float64(12.067), 'max_duration_us': np.float64(23.693)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 360, 'total_duration_us': 6226.331, 'mean_duration_us': 17.29536388888889, 'median_duration_us': 15.795, 'std_dev_duration_us': 2.8259221431687647, 'min_duration_us': 12.067, 'max_duration_us': 23.693}]</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(17.3)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 17.3}]</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 250, 'total_duration_us': np.float64(5090.484), 'mean_duration_us': np.float64(20.361936), 'median_duration_us': np.float64(20.165), 'std_dev_duration_us': np.float64(1.2402476574878099), 'min_duration_us': np.float64(18.0), 'max_duration_us': np.float64(28.384)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 250, 'total_duration_us': 5090.484, 'mean_duration_us': 20.361936, 'median_duration_us': 20.165, 'std_dev_duration_us': 1.2402476574878099, 'min_duration_us': 18.0, 'max_duration_us': 28.384}]</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': np.float64(20.36)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': 20.36}]</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(4463.737999999999), 'mean_duration_us': np.float64(37.19781666666666), 'median_duration_us': np.float64(37.084), 'std_dev_duration_us': np.float64(4.0768960782751815), 'min_duration_us': np.float64(28.985), 'max_duration_us': np.float64(50.435)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 4463.737999999999, 'mean_duration_us': 37.19781666666666, 'median_duration_us': 37.084, 'std_dev_duration_us': 4.0768960782751815, 'min_duration_us': 28.985, 'max_duration_us': 50.435}]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(37.2)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 37.2}]</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(3529.13), 'mean_duration_us': np.float64(29.40941666666667), 'median_duration_us': np.float64(29.1055), 'std_dev_duration_us': np.float64(1.2255553202754885), 'min_duration_us': np.float64(27.703), 'max_duration_us': np.float64(33.035)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 3529.13, 'mean_duration_us': 29.40941666666667, 'median_duration_us': 29.1055, 'std_dev_duration_us': 1.2255553202754885, 'min_duration_us': 27.703, 'max_duration_us': 33.035}]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(29.41)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 29.41}]</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(3008.275), 'mean_duration_us': np.float64(25.068958333333335), 'median_duration_us': np.float64(24.8965), 'std_dev_duration_us': np.float64(2.5754997003683036), 'min_duration_us': np.float64(19.765), 'max_duration_us': np.float64(33.957)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 3008.275, 'mean_duration_us': 25.068958333333335, 'median_duration_us': 24.8965, 'std_dev_duration_us': 2.5754997003683036, 'min_duration_us': 19.765, 'max_duration_us': 33.957}]</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(25.07)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 25.07}]</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 245, 'total_duration_us': np.float64(2450.014), 'mean_duration_us': np.float64(10.000057142857143), 'median_duration_us': np.float64(9.942), 'std_dev_duration_us': np.float64(0.8502293788941274), 'min_duration_us': np.float64(8.218), 'max_duration_us': np.float64(13.429)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 245, 'total_duration_us': 2450.014, 'mean_duration_us': 10.000057142857143, 'median_duration_us': 9.942, 'std_dev_duration_us': 0.8502293788941274, 'min_duration_us': 8.218, 'max_duration_us': 13.429}]</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(10.0)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 10.0}]</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(1979.3850000000002), 'mean_duration_us': np.float64(16.494875), 'median_duration_us': np.float64(16.216), 'std_dev_duration_us': np.float64(0.889071627809031), 'min_duration_us': np.float64(14.673), 'max_duration_us': np.float64(18.802)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': 1979.3850000000002, 'mean_duration_us': 16.494875, 'median_duration_us': 16.216, 'std_dev_duration_us': 0.889071627809031, 'min_duration_us': 14.673, 'max_duration_us': 18.802}]</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(16.49)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 16.49}]</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 240, 'total_duration_us': np.float64(1649.788), 'mean_duration_us': np.float64(6.874116666666667), 'median_duration_us': np.float64(6.895), 'std_dev_duration_us': np.float64(0.40092175428075183), 'min_duration_us': np.float64(5.812), 'max_duration_us': np.float64(8.979)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 240, 'total_duration_us': 1649.788, 'mean_duration_us': 6.874116666666667, 'median_duration_us': 6.895, 'std_dev_duration_us': 0.40092175428075183, 'min_duration_us': 5.812, 'max_duration_us': 8.979}]</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.87)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.87}]</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(1138.047), 'mean_duration_us': np.float64(227.6094), 'median_duration_us': np.float64(225.036), 'std_dev_duration_us': np.float64(4.802322254909601), 'min_duration_us': np.float64(224.634), 'max_duration_us': np.float64(237.144)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 1138.047, 'mean_duration_us': 227.6094, 'median_duration_us': 225.036, 'std_dev_duration_us': 4.802322254909601, 'min_duration_us': 224.634, 'max_duration_us': 237.144}]</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(227.61)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 227.61}]</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(1136.443), 'mean_duration_us': np.float64(227.2886), 'median_duration_us': np.float64(226.238), 'std_dev_duration_us': np.float64(2.4922390415046425), 'min_duration_us': np.float64(224.715), 'max_duration_us': np.float64(230.528)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 1136.443, 'mean_duration_us': 227.2886, 'median_duration_us': 226.238, 'std_dev_duration_us': 2.4922390415046425, 'min_duration_us': 224.715, 'max_duration_us': 230.528}]</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(227.29)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 227.29}]</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 180, 'total_duration_us': np.float64(1058.8980000000001), 'mean_duration_us': np.float64(5.882766666666668), 'median_duration_us': np.float64(5.893), 'std_dev_duration_us': np.float64(0.3655466545691078), 'min_duration_us': np.float64(4.81), 'max_duration_us': np.float64(6.775)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 180, 'total_duration_us': 1058.8980000000001, 'mean_duration_us': 5.882766666666668, 'median_duration_us': 5.893, 'std_dev_duration_us': 0.3655466545691078, 'min_duration_us': 4.81, 'max_duration_us': 6.775}]</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(5.88)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 5.88}]</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(898.455), 'mean_duration_us': np.float64(179.691), 'median_duration_us': np.float64(189.314), 'std_dev_duration_us': np.float64(29.36311296167353), 'min_duration_us': np.float64(122.118), 'max_duration_us': np.float64(204.147)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 898.455, 'mean_duration_us': 179.691, 'median_duration_us': 189.314, 'std_dev_duration_us': 29.36311296167353, 'min_duration_us': 122.118, 'max_duration_us': 204.147}]</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(179.69)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 179.69}]</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(868.479), 'mean_duration_us': np.float64(7.237325), 'median_duration_us': np.float64(7.175), 'std_dev_duration_us': np.float64(0.5774263757181518), 'min_duration_us': np.float64(6.414), 'max_duration_us': np.float64(10.503)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 868.479, 'mean_duration_us': 7.237325, 'median_duration_us': 7.175, 'std_dev_duration_us': 0.5774263757181518, 'min_duration_us': 6.414, 'max_duration_us': 10.503}]</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(7.24)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 7.24}]</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(848.183), 'mean_duration_us': np.float64(169.6366), 'median_duration_us': np.float64(169.549), 'std_dev_duration_us': np.float64(0.12531017516545753), 'min_duration_us': np.float64(169.508), 'max_duration_us': np.float64(169.789)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 848.183, 'mean_duration_us': 169.6366, 'median_duration_us': 169.549, 'std_dev_duration_us': 0.12531017516545753, 'min_duration_us': 169.508, 'max_duration_us': 169.789}]</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(169.64)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 169.64}]</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 125, 'total_duration_us': np.float64(646.4359999999999), 'mean_duration_us': np.float64(5.171487999999999), 'median_duration_us': np.float64(5.13), 'std_dev_duration_us': np.float64(0.3605603331704697), 'min_duration_us': np.float64(4.409), 'max_duration_us': np.float64(6.293)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 125, 'total_duration_us': 646.4359999999999, 'mean_duration_us': 5.171487999999999, 'median_duration_us': 5.13, 'std_dev_duration_us': 0.3605603331704697, 'min_duration_us': 4.409, 'max_duration_us': 6.293}]</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': np.float64(5.17)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': 5.17}]</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 20, 'total_duration_us': np.float64(622.568), 'mean_duration_us': np.float64(31.1284), 'median_duration_us': np.float64(30.448999999999998), 'std_dev_duration_us': np.float64(1.3790227119231941), 'min_duration_us': np.float64(28.705), 'max_duration_us': np.float64(33.516)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 20, 'total_duration_us': 622.568, 'mean_duration_us': 31.1284, 'median_duration_us': 30.448999999999998, 'std_dev_duration_us': 1.3790227119231941, 'min_duration_us': 28.705, 'max_duration_us': 33.516}]</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(31.13)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': 31.13}]</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 125, 'total_duration_us': np.float64(572.1489999999999), 'mean_duration_us': np.float64(4.577191999999999), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.3315058659149187), 'min_duration_us': np.float64(4.048), 'max_duration_us': np.float64(5.452)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 125, 'total_duration_us': 572.1489999999999, 'mean_duration_us': 4.577191999999999, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.3315058659149187, 'min_duration_us': 4.048, 'max_duration_us': 5.452}]</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.58)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.58}]</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(555.2339999999999), 'mean_duration_us': np.float64(4.626949999999999), 'median_duration_us': np.float64(4.569), 'std_dev_duration_us': np.float64(0.3686557755323161), 'min_duration_us': np.float64(4.008), 'max_duration_us': np.float64(5.612)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': 555.2339999999999, 'mean_duration_us': 4.626949999999999, 'median_duration_us': 4.569, 'std_dev_duration_us': 0.3686557755323161, 'min_duration_us': 4.008, 'max_duration_us': 5.612}]</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.63)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.63}]</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(219.258), 'mean_duration_us': np.float64(43.851600000000005), 'median_duration_us': np.float64(44.621), 'std_dev_duration_us': np.float64(1.7498733211292758), 'min_duration_us': np.float64(40.372), 'max_duration_us': np.float64(45.063)}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV0_ACED0_AF0EM1_AF1EM1_AMAS0_ASE_ASGT_ASLT_ASM_ASAE01_ASCE01_ASEM1_AAC0_BL1_BS1_CLR1_DTLA0_DTLB0_DTVA0_DTVB0_DVO0_ETSP_EPS1_ELFLR0_EMLL0_FSSC10_FL0_GLVWA2_GLVWB8_GRCGA1_GRCGB1_GRPM1_GRVWn1_GSU1_GSUASB_GLS0_ISA942_IU1_K1_KLA_LBSPPA1024_LBSPPB128_LPA16_LPB16_LDL1_LRVW8_LWPMn1_LDW0_FMA_MIAV0_MDA2_MO40_MMFSC_MKFGSU256_NTA0_NTB0_NTC0_NTD0_NEPBS0_NLCA1_NLCB1_ONLL1_OPLV0_PK0_PAP0_PGR1_PLR5_PKA0_SIA3_SLW1_SS0_SU16_SUM0_SUS512_SCIUI1_SPO0_SRVW0_SSO0_SVW4_SNLL0_TSGRA0_TSGRB0_TT1_64_TLDS1_UMLDSA0_UMLDSB1_U64SL1_USFGROn1_VAW1_VSn1_VW1_VWB1_VFLRP1_WSGRA0_WSGRB0_WS64_WG64_4_1_WGMn16', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(298.64099999999996), 'mean_duration_us': np.float64(59.728199999999994), 'median_duration_us': np.float64(60.458), 'std_dev_duration_us': np.float64(1.7082119774782034), 'min_duration_us': np.float64(56.328), 'max_duration_us': np.float64(60.899)}]</t>
+          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'count': 5, 'total_duration_us': 219.258, 'mean_duration_us': 43.851600000000005, 'median_duration_us': 44.621, 'std_dev_duration_us': 1.7498733211292758, 'min_duration_us': 40.372, 'max_duration_us': 45.063}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV0_ACED0_AF0EM1_AF1EM1_AMAS0_ASE_ASGT_ASLT_ASM_ASAE01_ASCE01_ASEM1_AAC0_BL1_BS1_CLR1_DTLA0_DTLB0_DTVA0_DTVB0_DVO0_ETSP_EPS1_ELFLR0_EMLL0_FSSC10_FL0_GLVWA2_GLVWB8_GRCGA1_GRCGB1_GRPM1_GRVWn1_GSU1_GSUASB_GLS0_ISA942_IU1_K1_KLA_LBSPPA1024_LBSPPB128_LPA16_LPB16_LDL1_LRVW8_LWPMn1_LDW0_FMA_MIAV0_MDA2_MO40_MMFSC_MKFGSU256_NTA0_NTB0_NTC0_NTD0_NEPBS0_NLCA1_NLCB1_ONLL1_OPLV0_PK0_PAP0_PGR1_PLR5_PKA0_SIA3_SLW1_SS0_SU16_SUM0_SUS512_SCIUI1_SPO0_SRVW0_SSO0_SVW4_SNLL0_TSGRA0_TSGRB0_TT1_64_TLDS1_UMLDSA0_UMLDSB1_U64SL1_USFGROn1_VAW1_VSn1_VW1_VWB1_VFLRP1_WSGRA0_WSGRB0_WS64_WG64_4_1_WGMn16', 'stream': 0, 'count': 5, 'total_duration_us': 298.64099999999996, 'mean_duration_us': 59.728199999999994, 'median_duration_us': 60.458, 'std_dev_duration_us': 1.7082119774782034, 'min_duration_us': 56.328, 'max_duration_us': 60.899}]</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'mean_duration_us': np.float64(43.85)}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV...', 'stream': 0, 'mean_duration_us': np.float64(59.73)}]</t>
+          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'mean_duration_us': 43.85}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV...', 'stream': 0, 'mean_duration_us': 59.73}]</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(514.482), 'mean_duration_us': np.float64(8.5747), 'median_duration_us': np.float64(8.6385), 'std_dev_duration_us': np.float64(0.3650420660691038), 'min_duration_us': np.float64(7.657), 'max_duration_us': np.float64(9.18)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 514.482, 'mean_duration_us': 8.5747, 'median_duration_us': 8.6385, 'std_dev_duration_us': 0.3650420660691038, 'min_duration_us': 7.657, 'max_duration_us': 9.18}]</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(8.57)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 8.57}]</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(419.266), 'mean_duration_us': np.float64(6.987766666666667), 'median_duration_us': np.float64(6.895), 'std_dev_duration_us': np.float64(0.5233797654561062), 'min_duration_us': np.float64(5.973), 'max_duration_us': np.float64(8.658)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 419.266, 'mean_duration_us': 6.987766666666667, 'median_duration_us': 6.895, 'std_dev_duration_us': 0.5233797654561062, 'min_duration_us': 5.973, 'max_duration_us': 8.658}]</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.99)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.99}]</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(401.82699999999994), 'mean_duration_us': np.float64(6.697116666666665), 'median_duration_us': np.float64(6.775), 'std_dev_duration_us': np.float64(0.31499709478378085), 'min_duration_us': np.float64(5.973), 'max_duration_us': np.float64(7.296)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 60, 'total_duration_us': 401.82699999999994, 'mean_duration_us': 6.697116666666665, 'median_duration_us': 6.775, 'std_dev_duration_us': 0.31499709478378085, 'min_duration_us': 5.973, 'max_duration_us': 7.296}]</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(6.7)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 6.7}]</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(384.538), 'mean_duration_us': np.float64(6.408966666666667), 'median_duration_us': np.float64(6.273), 'std_dev_duration_us': np.float64(0.7107715049312417), 'min_duration_us': np.float64(5.091), 'max_duration_us': np.float64(8.659)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 384.538, 'mean_duration_us': 6.408966666666667, 'median_duration_us': 6.273, 'std_dev_duration_us': 0.7107715049312417, 'min_duration_us': 5.091, 'max_duration_us': 8.659}]</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.41)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.41}]</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3470,12 +3470,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(355.711), 'mean_duration_us': np.float64(5.928516666666667), 'median_duration_us': np.float64(5.812), 'std_dev_duration_us': np.float64(0.600517262912196), 'min_duration_us': np.float64(4.609), 'max_duration_us': np.float64(7.857)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 355.711, 'mean_duration_us': 5.928516666666667, 'median_duration_us': 5.812, 'std_dev_duration_us': 0.600517262912196, 'min_duration_us': 4.609, 'max_duration_us': 7.857}]</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(5.93)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 5.93}]</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 15, 'total_duration_us': np.float64(69.66600000000001), 'mean_duration_us': np.float64(4.644400000000001), 'median_duration_us': np.float64(4.689), 'std_dev_duration_us': np.float64(0.2239195688932374), 'min_duration_us': np.float64(4.248), 'max_duration_us': np.float64(5.01)}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 15, 'total_duration_us': np.float64(282.956), 'mean_duration_us': np.float64(18.863733333333336), 'median_duration_us': np.float64(17.158), 'std_dev_duration_us': np.float64(7.847680162244695), 'min_duration_us': np.float64(15.234), 'max_duration_us': np.float64(47.99)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 15, 'total_duration_us': 69.66600000000001, 'mean_duration_us': 4.644400000000001, 'median_duration_us': 4.689, 'std_dev_duration_us': 0.2239195688932374, 'min_duration_us': 4.248, 'max_duration_us': 5.01}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 15, 'total_duration_us': 282.956, 'mean_duration_us': 18.863733333333336, 'median_duration_us': 17.158, 'std_dev_duration_us': 7.847680162244695, 'min_duration_us': 15.234, 'max_duration_us': 47.99}]</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.64)}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': np.float64(18.86)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.64}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': 18.86}]</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -3604,12 +3604,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(308.848), 'mean_duration_us': np.float64(5.147466666666667), 'median_duration_us': np.float64(5.051), 'std_dev_duration_us': np.float64(0.35748615202394757), 'min_duration_us': np.float64(4.369), 'max_duration_us': np.float64(6.093)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 308.848, 'mean_duration_us': 5.147466666666667, 'median_duration_us': 5.051, 'std_dev_duration_us': 0.35748615202394757, 'min_duration_us': 4.369, 'max_duration_us': 6.093}]</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(5.15)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 5.15}]</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::softmax_warp_forward&lt;c10::BFloat16, c10::BFloat16, float, 3, false, false&gt;(c10::BFloat16*, c10::BFloat16 const*, int, int, int, bool const*, int, bool)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(294.65700000000004), 'mean_duration_us': np.float64(4.910950000000001), 'median_duration_us': np.float64(4.810499999999999), 'std_dev_duration_us': np.float64(0.34617815379753053), 'min_duration_us': np.float64(4.249), 'max_duration_us': np.float64(6.093)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::softmax_warp_forward&lt;c10::BFloat16, c10::BFloat16, float, 3, false, false&gt;(c10::BFloat16*, c10::BFloat16 const*, int, int, int, bool const*, int, bool)', 'stream': 0, 'count': 60, 'total_duration_us': 294.65700000000004, 'mean_duration_us': 4.910950000000001, 'median_duration_us': 4.810499999999999, 'std_dev_duration_us': 0.34617815379753053, 'min_duration_us': 4.249, 'max_duration_us': 6.093}]</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::softmax_warp_forward&lt;c10::BFloat16, ...', 'stream': 0, 'mean_duration_us': np.float64(4.91)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::softmax_warp_forward&lt;c10::BFloat16, ...', 'stream': 0, 'mean_duration_us': 4.91}]</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3738,12 +3738,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(292.09), 'mean_duration_us': np.float64(4.868166666666666), 'median_duration_us': np.float64(4.77), 'std_dev_duration_us': np.float64(0.40604807460310527), 'min_duration_us': np.float64(4.128), 'max_duration_us': np.float64(5.852)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 292.09, 'mean_duration_us': 4.868166666666666, 'median_duration_us': 4.77, 'std_dev_duration_us': 0.40604807460310527, 'min_duration_us': 4.128, 'max_duration_us': 5.852}]</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(4.87)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 4.87}]</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3805,12 +3805,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(291.33199999999994), 'mean_duration_us': np.float64(4.855533333333332), 'median_duration_us': np.float64(4.73), 'std_dev_duration_us': np.float64(0.32905027309245954), 'min_duration_us': np.float64(4.289), 'max_duration_us': np.float64(5.532)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 291.33199999999994, 'mean_duration_us': 4.855533333333332, 'median_duration_us': 4.73, 'std_dev_duration_us': 0.32905027309245954, 'min_duration_us': 4.289, 'max_duration_us': 5.532}]</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(4.86)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 4.86}]</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(291.32899999999995), 'mean_duration_us': np.float64(4.855483333333333), 'median_duration_us': np.float64(4.69), 'std_dev_duration_us': np.float64(0.34405471908145985), 'min_duration_us': np.float64(4.209), 'max_duration_us': np.float64(5.773)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 291.32899999999995, 'mean_duration_us': 4.855483333333333, 'median_duration_us': 4.69, 'std_dev_duration_us': 0.34405471908145985, 'min_duration_us': 4.209, 'max_duration_us': 5.773}]</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(4.86)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 4.86}]</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 20, 'total_duration_us': np.float64(289.404), 'mean_duration_us': np.float64(14.4702), 'median_duration_us': np.float64(14.1715), 'std_dev_duration_us': np.float64(4.524248375144759), 'min_duration_us': np.float64(9.461), 'max_duration_us': np.float64(20.085)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 20, 'total_duration_us': 289.404, 'mean_duration_us': 14.4702, 'median_duration_us': 14.1715, 'std_dev_duration_us': 4.524248375144759, 'min_duration_us': 9.461, 'max_duration_us': 20.085}]</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Ge...', 'stream': 0, 'mean_duration_us': np.float64(14.47)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Ge...', 'stream': 0, 'mean_duration_us': 14.47}]</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 3, 64, 64&gt;(at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;*, at::native::(anonymous namespace)::CatArrInputTensorMetadata&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 64, 64&gt;, at::native::(anonymous namespace)::TensorSizeStride&lt;unsigned int, 4u&gt;, int, unsigned int)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(149.136), 'mean_duration_us': np.float64(29.827199999999998), 'median_duration_us': np.float64(29.667), 'std_dev_duration_us': np.float64(0.5100754453999921), 'min_duration_us': np.float64(29.306), 'max_duration_us': np.float64(30.789)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 3, 64, 64&gt;(at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;*, at::native::(anonymous namespace)::CatArrInputTensorMetadata&lt;at::native::(anonymous namespace)::OpaqueType&lt;2u&gt;, unsigned int, 64, 64&gt;, at::native::(anonymous namespace)::TensorSizeStride&lt;unsigned int, 4u&gt;, int, unsigned int)', 'stream': 0, 'count': 5, 'total_duration_us': 149.136, 'mean_duration_us': 29.827199999999998, 'median_duration_us': 29.667, 'std_dev_duration_us': 0.5100754453999921, 'min_duration_us': 29.306, 'max_duration_us': 30.789}]</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::...', 'stream': 0, 'mean_duration_us': np.float64(29.83)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::CatArrayBatchedCopy&lt;at::...', 'stream': 0, 'mean_duration_us': 29.83}]</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB4_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(136.148), 'mean_duration_us': np.float64(27.229599999999998), 'median_duration_us': np.float64(27.262), 'std_dev_duration_us': np.float64(0.7408710009171641), 'min_duration_us': np.float64(26.139), 'max_duration_us': np.float64(28.104)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB4_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 136.148, 'mean_duration_us': 27.229599999999998, 'median_duration_us': 27.262, 'std_dev_duration_us': 0.7408710009171641, 'min_duration_us': 26.139, 'max_duration_us': 28.104}]</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(27.23)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x1...', 'stream': 0, 'mean_duration_us': 27.23}]</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(95.929), 'mean_duration_us': np.float64(9.5929), 'median_duration_us': np.float64(5.912), 'std_dev_duration_us': np.float64(9.921683712455259), 'min_duration_us': np.float64(4.049), 'max_duration_us': np.float64(38.407)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': 95.929, 'mean_duration_us': 9.5929, 'median_duration_us': 5.912, 'std_dev_duration_us': 9.921683712455259, 'min_duration_us': 4.049, 'max_duration_us': 38.407}]</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(9.59)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 9.59}]</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(90.724), 'mean_duration_us': np.float64(18.1448), 'median_duration_us': np.float64(18.241), 'std_dev_duration_us': np.float64(0.2411509071100502), 'min_duration_us': np.float64(17.72), 'max_duration_us': np.float64(18.441)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 5, 'total_duration_us': 90.724, 'mean_duration_us': 18.1448, 'median_duration_us': 18.241, 'std_dev_duration_us': 0.2411509071100502, 'min_duration_us': 17.72, 'max_duration_us': 18.441}]</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': np.float64(18.14)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': 18.14}]</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(83.667), 'mean_duration_us': np.float64(16.7334), 'median_duration_us': np.float64(16.557), 'std_dev_duration_us': np.float64(0.8273663275720137), 'min_duration_us': np.float64(15.595), 'max_duration_us': np.float64(18.161)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': 83.667, 'mean_duration_us': 16.7334, 'median_duration_us': 16.557, 'std_dev_duration_us': 0.8273663275720137, 'min_duration_us': 15.595, 'max_duration_us': 18.161}]</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 0, 'mean_duration_us': np.float64(16.73)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 0, 'mean_duration_us': 16.73}]</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(75.429), 'mean_duration_us': np.float64(15.0858), 'median_duration_us': np.float64(14.823), 'std_dev_duration_us': np.float64(0.4742212142028235), 'min_duration_us': np.float64(14.603), 'max_duration_us': np.float64(15.755)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 75.429, 'mean_duration_us': 15.0858, 'median_duration_us': 14.823, 'std_dev_duration_us': 0.4742212142028235, 'min_duration_us': 14.603, 'max_duration_us': 15.755}]</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(15.09)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 15.09}]</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(60.253), 'mean_duration_us': np.float64(12.0506), 'median_duration_us': np.float64(11.906), 'std_dev_duration_us': np.float64(0.49213477828741153), 'min_duration_us': np.float64(11.345), 'max_duration_us': np.float64(12.628)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 60.253, 'mean_duration_us': 12.0506, 'median_duration_us': 11.906, 'std_dev_duration_us': 0.49213477828741153, 'min_duration_us': 11.345, 'max_duration_us': 12.628}]</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': np.float64(12.05)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': 12.05}]</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(59.051), 'mean_duration_us': np.float64(11.8102), 'median_duration_us': np.float64(11.826), 'std_dev_duration_us': np.float64(0.3424951970466156), 'min_duration_us': np.float64(11.345), 'max_duration_us': np.float64(12.387)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 59.051, 'mean_duration_us': 11.8102, 'median_duration_us': 11.826, 'std_dev_duration_us': 0.3424951970466156, 'min_duration_us': 11.345, 'max_duration_us': 12.387}]</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(11.81)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 11.81}]</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(58.97), 'mean_duration_us': np.float64(11.794), 'median_duration_us': np.float64(5.772), 'std_dev_duration_us': np.float64(12.405547646113815), 'min_duration_us': np.float64(5.411), 'max_duration_us': np.float64(36.603)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 58.97, 'mean_duration_us': 11.794, 'median_duration_us': 5.772, 'std_dev_duration_us': 12.405547646113815, 'min_duration_us': 5.411, 'max_duration_us': 36.603}]</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(11.79)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 11.79}]</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(55.763), 'mean_duration_us': np.float64(11.1526), 'median_duration_us': np.float64(5.171), 'std_dev_duration_us': np.float64(12.406593804908741), 'min_duration_us': np.float64(4.53), 'max_duration_us': np.float64(35.961)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::where_kernel_impl(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#3}::operator()() const::{lambda(bool, c10::BFloat16, c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 55.763, 'mean_duration_us': 11.1526, 'median_duration_us': 5.171, 'std_dev_duration_us': 12.406593804908741, 'min_duration_us': 4.53, 'max_duration_us': 35.961}]</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(11.15)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 11.15}]</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(49.509), 'mean_duration_us': np.float64(9.9018), 'median_duration_us': np.float64(9.662), 'std_dev_duration_us': np.float64(0.483819966516472), 'min_duration_us': np.float64(9.26), 'max_duration_us': np.float64(10.544)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 49.509, 'mean_duration_us': 9.9018, 'median_duration_us': 9.662, 'std_dev_duration_us': 0.483819966516472, 'min_duration_us': 9.26, 'max_duration_us': 10.544}]</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(9.9)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 9.9}]</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -4743,12 +4743,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(49.504000000000005), 'mean_duration_us': np.float64(4.9504), 'median_duration_us': np.float64(5.091), 'std_dev_duration_us': np.float64(0.4543756595593562), 'min_duration_us': np.float64(4.088), 'max_duration_us': np.float64(5.491)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 10, 'total_duration_us': 49.504000000000005, 'mean_duration_us': 4.9504, 'median_duration_us': 5.091, 'std_dev_duration_us': 0.4543756595593562, 'min_duration_us': 4.088, 'max_duration_us': 5.491}]</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.95)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.95}]</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(48.14), 'mean_duration_us': np.float64(4.814), 'median_duration_us': np.float64(4.63), 'std_dev_duration_us': np.float64(0.7427319839619135), 'min_duration_us': np.float64(3.848), 'max_duration_us': np.float64(5.932)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 10, 'total_duration_us': 48.14, 'mean_duration_us': 4.814, 'median_duration_us': 4.63, 'std_dev_duration_us': 0.7427319839619135, 'min_duration_us': 3.848, 'max_duration_us': 5.932}]</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': np.float64(4.81)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': 4.81}]</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4877,12 +4877,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB1_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB256_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(47.143), 'mean_duration_us': np.float64(9.4286), 'median_duration_us': np.float64(9.14), 'std_dev_duration_us': np.float64(0.45920696858823895), 'min_duration_us': np.float64(8.94), 'max_duration_us': np.float64(10.062)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB1_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB256_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 47.143, 'mean_duration_us': 9.4286, 'median_duration_us': 9.14, 'std_dev_duration_us': 0.45920696858823895, 'min_duration_us': 8.94, 'max_duration_us': 10.062}]</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(9.43)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x1...', 'stream': 0, 'mean_duration_us': 9.43}]</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4944,12 +4944,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(42.248), 'mean_duration_us': np.float64(4.2248), 'median_duration_us': np.float64(4.148999999999999), 'std_dev_duration_us': np.float64(0.4044254690298325), 'min_duration_us': np.float64(3.808), 'max_duration_us': np.float64(5.292)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': 42.248, 'mean_duration_us': 4.2248, 'median_duration_us': 4.148999999999999, 'std_dev_duration_us': 0.4044254690298325, 'min_duration_us': 3.808, 'max_duration_us': 5.292}]</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(4.22)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 4.22}]</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;int, at::native::ArgMaxOps&lt;int&gt;, unsigned int, long, 4, 4&gt; &gt;(at::native::ReduceOp&lt;int, at::native::ArgMaxOps&lt;int&gt;, unsigned int, long, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(37.763000000000005), 'mean_duration_us': np.float64(7.552600000000001), 'median_duration_us': np.float64(7.457), 'std_dev_duration_us': np.float64(0.2960490499900313), 'min_duration_us': np.float64(7.256), 'max_duration_us': np.float64(8.057)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;int, at::native::ArgMaxOps&lt;int&gt;, unsigned int, long, 4, 4&gt; &gt;(at::native::ReduceOp&lt;int, at::native::ArgMaxOps&lt;int&gt;, unsigned int, long, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 37.763000000000005, 'mean_duration_us': 7.552600000000001, 'median_duration_us': 7.457, 'std_dev_duration_us': 0.2960490499900313, 'min_duration_us': 7.256, 'max_duration_us': 8.057}]</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;int,...', 'stream': 0, 'mean_duration_us': np.float64(7.55)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;int,...', 'stream': 0, 'mean_duration_us': 7.55}]</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::index_elementwise_kernel&lt;128, 4, at::native::gpu_index_kernel&lt;at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1}&gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;, at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1} const&amp;)::{lambda(int)#1}&gt;(long, at::native::gpu_index_kernel&lt;at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1}&gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;, at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(32.910000000000004), 'mean_duration_us': np.float64(6.582000000000001), 'median_duration_us': np.float64(6.655), 'std_dev_duration_us': np.float64(0.26174949856685475), 'min_duration_us': np.float64(6.253), 'max_duration_us': np.float64(6.975)}]</t>
+          <t>[{'name': 'void at::native::index_elementwise_kernel&lt;128, 4, at::native::gpu_index_kernel&lt;at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1}&gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;, at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1} const&amp;)::{lambda(int)#1}&gt;(long, at::native::gpu_index_kernel&lt;at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1}&gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;, at::native::index_kernel_impl&lt;at::native::OpaqueType&lt;2&gt; &gt;(at::TensorIteratorBase&amp;, c10::ArrayRef&lt;long&gt;, c10::ArrayRef&lt;long&gt;)::{lambda(char*, char const*, long)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 32.910000000000004, 'mean_duration_us': 6.582000000000001, 'median_duration_us': 6.655, 'std_dev_duration_us': 0.26174949856685475, 'min_duration_us': 6.253, 'max_duration_us': 6.975}]</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::index_elementwise_kernel&lt;128, 4, at::native::gp...', 'stream': 0, 'mean_duration_us': np.float64(6.58)}]</t>
+          <t>[{'name': 'void at::native::index_elementwise_kernel&lt;128, 4, at::native::gp...', 'stream': 0, 'mean_duration_us': 6.58}]</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(32.149), 'mean_duration_us': np.float64(6.4298), 'median_duration_us': np.float64(6.414), 'std_dev_duration_us': np.float64(0.32155770866206873), 'min_duration_us': np.float64(5.892), 'max_duration_us': np.float64(6.895)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 32.149, 'mean_duration_us': 6.4298, 'median_duration_us': 6.414, 'std_dev_duration_us': 0.32155770866206873, 'min_duration_us': 5.892, 'max_duration_us': 6.895}]</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': np.float64(6.43)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': 6.43}]</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(31.827999999999996), 'mean_duration_us': np.float64(6.365599999999999), 'median_duration_us': np.float64(6.334), 'std_dev_duration_us': np.float64(0.16319877450520262), 'min_duration_us': np.float64(6.173), 'max_duration_us': np.float64(6.574)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': 31.827999999999996, 'mean_duration_us': 6.365599999999999, 'median_duration_us': 6.334, 'std_dev_duration_us': 0.16319877450520262, 'min_duration_us': 6.173, 'max_duration_us': 6.574}]</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c1...', 'stream': 0, 'mean_duration_us': np.float64(6.37)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c1...', 'stream': 0, 'mean_duration_us': 6.37}]</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(31.067), 'mean_duration_us': np.float64(6.2134), 'median_duration_us': np.float64(6.093), 'std_dev_duration_us': np.float64(0.28699937282161453), 'min_duration_us': np.float64(6.013), 'max_duration_us': np.float64(6.775)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 31.067, 'mean_duration_us': 6.2134, 'median_duration_us': 6.093, 'std_dev_duration_us': 0.28699937282161453, 'min_duration_us': 6.013, 'max_duration_us': 6.775}]</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.21)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.21}]</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(30.145000000000003), 'mean_duration_us': np.float64(6.029000000000001), 'median_duration_us': np.float64(6.093), 'std_dev_duration_us': np.float64(0.2632732420888988), 'min_duration_us': np.float64(5.652), 'max_duration_us': np.float64(6.374)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 30.145000000000003, 'mean_duration_us': 6.029000000000001, 'median_duration_us': 6.093, 'std_dev_duration_us': 0.2632732420888988, 'min_duration_us': 5.652, 'max_duration_us': 6.374}]</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.03)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.03}]</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -5413,12 +5413,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(28.06), 'mean_duration_us': np.float64(5.612), 'median_duration_us': np.float64(5.572), 'std_dev_duration_us': np.float64(0.10158936952260311), 'min_duration_us': np.float64(5.492), 'max_duration_us': np.float64(5.733)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, long)', 'stream': 0, 'count': 5, 'total_duration_us': 28.06, 'mean_duration_us': 5.612, 'median_duration_us': 5.572, 'std_dev_duration_us': 0.10158936952260311, 'min_duration_us': 5.492, 'max_duration_us': 5.733}]</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c1...', 'stream': 0, 'mean_duration_us': np.float64(5.61)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectSmallIndex&lt;c1...', 'stream': 0, 'mean_duration_us': 5.61}]</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -5480,12 +5480,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(27.898), 'mean_duration_us': np.float64(5.5796), 'median_duration_us': np.float64(5.572), 'std_dev_duration_us': np.float64(0.0162061716639064), 'min_duration_us': np.float64(5.571), 'max_duration_us': np.float64(5.612)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 27.898, 'mean_duration_us': 5.5796, 'median_duration_us': 5.572, 'std_dev_duration_us': 0.0162061716639064, 'min_duration_us': 5.571, 'max_duration_us': 5.612}]</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(5.58)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 5.58}]</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(26.455), 'mean_duration_us': np.float64(5.2909999999999995), 'median_duration_us': np.float64(5.251), 'std_dev_duration_us': np.float64(0.30444835358398653), 'min_duration_us': np.float64(4.93), 'max_duration_us': np.float64(5.732)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 26.455, 'mean_duration_us': 5.2909999999999995, 'median_duration_us': 5.251, 'std_dev_duration_us': 0.30444835358398653, 'min_duration_us': 4.93, 'max_duration_us': 5.732}]</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(5.29)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 5.29}]</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.814), 'mean_duration_us': np.float64(5.1628), 'median_duration_us': np.float64(5.171), 'std_dev_duration_us': np.float64(0.1816726726835932), 'min_duration_us': np.float64(4.89), 'max_duration_us': np.float64(5.451)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 25.814, 'mean_duration_us': 5.1628, 'median_duration_us': 5.171, 'std_dev_duration_us': 0.1816726726835932, 'min_duration_us': 4.89, 'max_duration_us': 5.451}]</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(5.16)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 5.16}]</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnOther_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnOther_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.654999999999998), 'mean_duration_us': np.float64(5.130999999999999), 'median_duration_us': np.float64(5.371), 'std_dev_duration_us': np.float64(0.43609265070624603), 'min_duration_us': np.float64(4.61), 'max_duration_us': np.float64(5.652)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnOther_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnOther_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 25.654999999999998, 'mean_duration_us': 5.130999999999999, 'median_duration_us': 5.371, 'std_dev_duration_us': 0.43609265070624603, 'min_duration_us': 4.61, 'max_duration_us': 5.652}]</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(5.13)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 5.13}]</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5748,12 +5748,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.655), 'mean_duration_us': np.float64(5.131), 'median_duration_us': np.float64(5.131), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(5.131), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 25.655, 'mean_duration_us': 5.131, 'median_duration_us': 5.131, 'std_dev_duration_us': 0.0, 'min_duration_us': 5.131, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(5.13)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 5.13}]</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5815,12 +5815,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.093000000000004), 'mean_duration_us': np.float64(5.018600000000001), 'median_duration_us': np.float64(5.051), 'std_dev_duration_us': np.float64(0.09307330444332598), 'min_duration_us': np.float64(4.89), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 0, 'count': 5, 'total_duration_us': 25.093000000000004, 'mean_duration_us': 5.018600000000001, 'median_duration_us': 5.051, 'std_dev_duration_us': 0.09307330444332598, 'min_duration_us': 4.89, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': np.float64(5.02)}]</t>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 0, 'mean_duration_us': 5.02}]</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -5882,12 +5882,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::FillFunctor&lt;float&gt;, std::array&lt;char*, 1ul&gt; &gt;(int, at::native::FillFunctor&lt;float&gt;, std::array&lt;char*, 1ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.689999999999998), 'mean_duration_us': np.float64(4.938), 'median_duration_us': np.float64(5.05), 'std_dev_duration_us': np.float64(0.26999333325102687), 'min_duration_us': np.float64(4.449), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::FillFunctor&lt;float&gt;, std::array&lt;char*, 1ul&gt; &gt;(int, at::native::FillFunctor&lt;float&gt;, std::array&lt;char*, 1ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.689999999999998, 'mean_duration_us': 4.938, 'median_duration_us': 5.05, 'std_dev_duration_us': 0.26999333325102687, 'min_duration_us': 4.449, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Fi...', 'stream': 0, 'mean_duration_us': np.float64(4.94)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Fi...', 'stream': 0, 'mean_duration_us': 4.94}]</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.21), 'mean_duration_us': np.float64(4.8420000000000005), 'median_duration_us': np.float64(4.529), 'std_dev_duration_us': np.float64(0.4251691428125987), 'min_duration_us': np.float64(4.489), 'max_duration_us': np.float64(5.491)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.21, 'mean_duration_us': 4.8420000000000005, 'median_duration_us': 4.529, 'std_dev_duration_us': 0.4251691428125987, 'min_duration_us': 4.489, 'max_duration_us': 5.491}]</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bf...', 'stream': 0, 'mean_duration_us': np.float64(4.84)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bf...', 'stream': 0, 'mean_duration_us': 4.84}]</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.131), 'mean_duration_us': np.float64(4.8262), 'median_duration_us': np.float64(4.69), 'std_dev_duration_us': np.float64(0.2316759806281177), 'min_duration_us': np.float64(4.61), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.131, 'mean_duration_us': 4.8262, 'median_duration_us': 4.69, 'std_dev_duration_us': 0.2316759806281177, 'min_duration_us': 4.61, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.83)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.83}]</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::exp_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::exp_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.051000000000002), 'mean_duration_us': np.float64(4.8102), 'median_duration_us': np.float64(4.73), 'std_dev_duration_us': np.float64(0.2619926716532353), 'min_duration_us': np.float64(4.53), 'max_duration_us': np.float64(5.211)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::exp_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::exp_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.051000000000002, 'mean_duration_us': 4.8102, 'median_duration_us': 4.73, 'std_dev_duration_us': 0.2619926716532353, 'min_duration_us': 4.53, 'max_duration_us': 5.211}]</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::ex...', 'stream': 0, 'mean_duration_us': np.float64(4.81)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::ex...', 'stream': 0, 'mean_duration_us': 4.81}]</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -6150,12 +6150,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.011000000000003), 'mean_duration_us': np.float64(4.802200000000001), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.5108465131524341), 'min_duration_us': np.float64(4.41), 'max_duration_us': np.float64(5.812)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.011000000000003, 'mean_duration_us': 4.802200000000001, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.5108465131524341, 'min_duration_us': 4.41, 'max_duration_us': 5.812}]</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(4.8)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 4.8}]</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.931), 'mean_duration_us': np.float64(4.7862), 'median_duration_us': np.float64(4.61), 'std_dev_duration_us': np.float64(0.5367853947342459), 'min_duration_us': np.float64(4.249), 'max_duration_us': np.float64(5.812)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 23.931, 'mean_duration_us': 4.7862, 'median_duration_us': 4.61, 'std_dev_duration_us': 0.5367853947342459, 'min_duration_us': 4.249, 'max_duration_us': 5.812}]</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.79)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.79}]</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -6284,12 +6284,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.85), 'mean_duration_us': np.float64(4.7700000000000005), 'median_duration_us': np.float64(4.61), 'std_dev_duration_us': np.float64(0.3218459258713711), 'min_duration_us': np.float64(4.449), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 23.85, 'mean_duration_us': 4.7700000000000005, 'median_duration_us': 4.61, 'std_dev_duration_us': 0.3218459258713711, 'min_duration_us': 4.449, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(4.77)}]</t>
+          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'mean_duration_us': 4.77}]</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; &gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; &gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.769), 'mean_duration_us': np.float64(4.7538), 'median_duration_us': np.float64(4.931), 'std_dev_duration_us': np.float64(0.25055570238970815), 'min_duration_us': np.float64(4.409), 'max_duration_us': np.float64(4.97)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; &gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; &gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::CompareFunctor&lt;long&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 23.769, 'mean_duration_us': 4.7538, 'median_duration_us': 4.931, 'std_dev_duration_us': 0.25055570238970815, 'min_duration_us': 4.409, 'max_duration_us': 4.97}]</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.75)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.75}]</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -6418,12 +6418,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.769), 'mean_duration_us': np.float64(4.7538), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.2427059125773412), 'min_duration_us': np.float64(4.529), 'max_duration_us': np.float64(5.051)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2})', 'stream': 0, 'count': 5, 'total_duration_us': 23.769, 'mean_duration_us': 4.7538, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.2427059125773412, 'min_duration_us': 4.529, 'max_duration_us': 5.051}]</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.75)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.75}]</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -6485,12 +6485,12 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::compare_scalar_kernel&lt;long&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::OpType, long)::{lambda(long)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::compare_scalar_kernel&lt;long&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::OpType, long)::{lambda(long)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.568), 'mean_duration_us': np.float64(4.7136000000000005), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.35368324811899154), 'min_duration_us': np.float64(4.329), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::compare_scalar_kernel&lt;long&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::OpType, long)::{lambda(long)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::compare_scalar_kernel&lt;long&gt;(at::TensorIteratorBase&amp;, at::native::(anonymous namespace)::OpType, long)::{lambda(long)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.568, 'mean_duration_us': 4.7136000000000005, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.35368324811899154, 'min_duration_us': 4.329, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::co...', 'stream': 0, 'mean_duration_us': np.float64(4.71)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::co...', 'stream': 0, 'mean_duration_us': 4.71}]</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.368999999999996), 'mean_duration_us': np.float64(4.673799999999999), 'median_duration_us': np.float64(4.73), 'std_dev_duration_us': np.float64(0.19056169604618856), 'min_duration_us': np.float64(4.449), 'max_duration_us': np.float64(4.89)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 23.368999999999996, 'mean_duration_us': 4.673799999999999, 'median_duration_us': 4.73, 'std_dev_duration_us': 0.19056169604618856, 'min_duration_us': 4.449, 'max_duration_us': 4.89}]</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.67)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.67}]</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#7}::operator()() const::{lambda(float, bool)#1}, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#7}::operator()() const::{lambda(float, bool)#1}, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.25), 'mean_duration_us': np.float64(4.65), 'median_duration_us': np.float64(4.61), 'std_dev_duration_us': np.float64(0.13908414719154719), 'min_duration_us': np.float64(4.489), 'max_duration_us': np.float64(4.851)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#7}::operator()() const::{lambda(float, bool)#1}, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#7}::operator()() const::{lambda(float, bool)#1}, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.25, 'mean_duration_us': 4.65, 'median_duration_us': 4.61, 'std_dev_duration_us': 0.13908414719154719, 'min_duration_us': 4.489, 'max_duration_us': 4.851}]</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::(a...', 'stream': 0, 'mean_duration_us': np.float64(4.65)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::(a...', 'stream': 0, 'mean_duration_us': 4.65}]</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6686,12 +6686,12 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.21), 'mean_duration_us': np.float64(4.642), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.28190920524168783), 'min_duration_us': np.float64(4.329), 'max_duration_us': np.float64(5.011)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.21, 'mean_duration_us': 4.642, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.28190920524168783, 'min_duration_us': 4.329, 'max_duration_us': 5.011}]</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.64)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.64}]</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6753,12 +6753,12 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.167), 'mean_duration_us': np.float64(4.6334), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.36638482501326386), 'min_duration_us': np.float64(4.128), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.167, 'mean_duration_us': 4.6334, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.36638482501326386, 'min_duration_us': 4.128, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.63)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.63}]</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6820,12 +6820,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;(int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}, function_traits&lt;at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;::result_type*)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.088), 'mean_duration_us': np.float64(4.6176), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.2929693499327193), 'min_duration_us': np.float64(4.369), 'max_duration_us': np.float64(5.171)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;(int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}, function_traits&lt;at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;::result_type*)', 'stream': 0, 'count': 5, 'total_duration_us': 23.088, 'mean_duration_us': 4.6176, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.2929693499327193, 'min_duration_us': 4.369, 'max_duration_us': 5.171}]</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, a...', 'stream': 0, 'mean_duration_us': np.float64(4.62)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, a...', 'stream': 0, 'mean_duration_us': 4.62}]</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -6887,12 +6887,12 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.087000000000003), 'mean_duration_us': np.float64(4.617400000000001), 'median_duration_us': np.float64(4.569), 'std_dev_duration_us': np.float64(0.2909203327373321), 'min_duration_us': np.float64(4.328), 'max_duration_us': np.float64(5.171)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.087000000000003, 'mean_duration_us': 4.617400000000001, 'median_duration_us': 4.569, 'std_dev_duration_us': 0.2909203327373321, 'min_duration_us': 4.328, 'max_duration_us': 5.171}]</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.62)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.62}]</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.929000000000002), 'mean_duration_us': np.float64(4.585800000000001), 'median_duration_us': np.float64(3.647), 'std_dev_duration_us': np.float64(2.16479425350309), 'min_duration_us': np.float64(2.525), 'max_duration_us': np.float64(8.739)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 22.929000000000002, 'mean_duration_us': 4.585800000000001, 'median_duration_us': 3.647, 'std_dev_duration_us': 2.16479425350309, 'min_duration_us': 2.525, 'max_duration_us': 8.739}]</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(4.59)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 4.59}]</t>
         </is>
       </c>
       <c r="P83" t="n">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.928), 'mean_duration_us': np.float64(4.5856), 'median_duration_us': np.float64(4.329), 'std_dev_duration_us': np.float64(0.4130828488330158), 'min_duration_us': np.float64(4.169), 'max_duration_us': np.float64(5.291)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 22.928, 'mean_duration_us': 4.5856, 'median_duration_us': 4.329, 'std_dev_duration_us': 0.4130828488330158, 'min_duration_us': 4.169, 'max_duration_us': 5.291}]</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.59)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.59}]</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -7088,12 +7088,12 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::FillFunctor&lt;c10::BFloat16&gt;, std::array&lt;char*, 1ul&gt; &gt;(int, at::native::FillFunctor&lt;c10::BFloat16&gt;, std::array&lt;char*, 1ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.646), 'mean_duration_us': np.float64(4.5292), 'median_duration_us': np.float64(4.649), 'std_dev_duration_us': np.float64(0.24465600340069316), 'min_duration_us': np.float64(4.088), 'max_duration_us': np.float64(4.77)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::FillFunctor&lt;c10::BFloat16&gt;, std::array&lt;char*, 1ul&gt; &gt;(int, at::native::FillFunctor&lt;c10::BFloat16&gt;, std::array&lt;char*, 1ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 22.646, 'mean_duration_us': 4.5292, 'median_duration_us': 4.649, 'std_dev_duration_us': 0.24465600340069316, 'min_duration_us': 4.088, 'max_duration_us': 4.77}]</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Fi...', 'stream': 0, 'mean_duration_us': np.float64(4.53)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Fi...', 'stream': 0, 'mean_duration_us': 4.53}]</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -7155,12 +7155,12 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.487000000000002), 'mean_duration_us': np.float64(4.497400000000001), 'median_duration_us': np.float64(4.369), 'std_dev_duration_us': np.float64(0.3635748066079388), 'min_duration_us': np.float64(4.048), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 22.487000000000002, 'mean_duration_us': 4.497400000000001, 'median_duration_us': 4.369, 'std_dev_duration_us': 0.3635748066079388, 'min_duration_us': 4.048, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.5)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.5}]</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;(int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}, function_traits&lt;at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;::result_type*)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.485999999999997), 'mean_duration_us': np.float64(4.497199999999999), 'median_duration_us': np.float64(4.449), 'std_dev_duration_us': np.float64(0.331947827225906), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(4.89)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;(int, at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}, function_traits&lt;at::native::arange_cuda_out(c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, at::Tensor&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(long)#1}&gt;::result_type*)', 'stream': 0, 'count': 5, 'total_duration_us': 22.485999999999997, 'mean_duration_us': 4.497199999999999, 'median_duration_us': 4.449, 'std_dev_duration_us': 0.331947827225906, 'min_duration_us': 3.968, 'max_duration_us': 4.89}]</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, a...', 'stream': 0, 'mean_duration_us': np.float64(4.5)}]</t>
+          <t>[{'name': 'void (anonymous namespace)::elementwise_kernel_with_index&lt;int, a...', 'stream': 0, 'mean_duration_us': 4.5}]</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16, bool)#1}, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16, bool)#1}, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.366), 'mean_duration_us': np.float64(4.4732), 'median_duration_us': np.float64(4.369), 'std_dev_duration_us': np.float64(0.19400659782595026), 'min_duration_us': np.float64(4.289), 'max_duration_us': np.float64(4.81)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16, bool)#1}, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::(anonymous namespace)::masked_fill_kernel(at::TensorIterator&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16, bool)#1}, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 22.366, 'mean_duration_us': 4.4732, 'median_duration_us': 4.369, 'std_dev_duration_us': 0.19400659782595026, 'min_duration_us': 4.289, 'max_duration_us': 4.81}]</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(a...', 'stream': 0, 'mean_duration_us': np.float64(4.47)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(a...', 'stream': 0, 'mean_duration_us': 4.47}]</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(anonymous namespace)::elu_kernel(at::TensorIteratorBase&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::(anonymous namespace)::elu_kernel(at::TensorIteratorBase&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(21.964), 'mean_duration_us': np.float64(4.392799999999999), 'median_duration_us': np.float64(4.449), 'std_dev_duration_us': np.float64(0.24247424605512233), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(4.689)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(anonymous namespace)::elu_kernel(at::TensorIteratorBase&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::(anonymous namespace)::elu_kernel(at::TensorIteratorBase&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;, c10::Scalar const&amp;)::{lambda()#1}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 21.964, 'mean_duration_us': 4.392799999999999, 'median_duration_us': 4.449, 'std_dev_duration_us': 0.24247424605512233, 'min_duration_us': 3.968, 'max_duration_us': 4.689}]</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(a...', 'stream': 0, 'mean_duration_us': np.float64(4.39)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::(a...', 'stream': 0, 'mean_duration_us': 4.39}]</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -7423,12 +7423,12 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(21.884999999999998), 'mean_duration_us': np.float64(4.377), 'median_duration_us': np.float64(4.329), 'std_dev_duration_us': np.float64(0.3979557764375334), 'min_duration_us': np.float64(3.848), 'max_duration_us': np.float64(4.97)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 21.884999999999998, 'mean_duration_us': 4.377, 'median_duration_us': 4.329, 'std_dev_duration_us': 0.3979557764375334, 'min_duration_us': 3.848, 'max_duration_us': 4.97}]</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(4.38)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 4.38}]</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -7490,12 +7490,12 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(21.845), 'mean_duration_us': np.float64(4.369), 'median_duration_us': np.float64(4.288), 'std_dev_duration_us': np.float64(0.39618329091469784), 'min_duration_us': np.float64(3.888), 'max_duration_us': np.float64(5.091)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 21.845, 'mean_duration_us': 4.369, 'median_duration_us': 4.288, 'std_dev_duration_us': 0.39618329091469784, 'min_duration_us': 3.888, 'max_duration_us': 5.091}]</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.37)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.37}]</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -7557,12 +7557,12 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(21.323), 'mean_duration_us': np.float64(4.2646), 'median_duration_us': np.float64(4.248), 'std_dev_duration_us': np.float64(0.1855506399881175), 'min_duration_us': np.float64(3.968), 'max_duration_us': np.float64(4.529)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt; &gt;(at::native::ReduceOp&lt;c10::BFloat16, at::native::NormTwoOps&lt;c10::BFloat16, float, c10::BFloat16&gt;, unsigned int, c10::BFloat16, 4, 4&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 21.323, 'mean_duration_us': 4.2646, 'median_duration_us': 4.248, 'std_dev_duration_us': 0.1855506399881175, 'min_duration_us': 3.968, 'max_duration_us': 4.529}]</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': np.float64(4.26)}]</t>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;c10:...', 'stream': 0, 'mean_duration_us': 4.26}]</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(17.916), 'mean_duration_us': np.float64(3.5832), 'median_duration_us': np.float64(3.407), 'std_dev_duration_us': np.float64(0.6221727734319463), 'min_duration_us': np.float64(2.886), 'max_duration_us': np.float64(4.609)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 17.916, 'mean_duration_us': 3.5832, 'median_duration_us': 3.407, 'std_dev_duration_us': 0.6221727734319463, 'min_duration_us': 2.886, 'max_duration_us': 4.609}]</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.58)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.58}]</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7691,12 +7691,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.99), 'mean_duration_us': np.float64(3.198), 'median_duration_us': np.float64(3.126), 'std_dev_duration_us': np.float64(0.3572125417731018), 'min_duration_us': np.float64(2.765), 'max_duration_us': np.float64(3.687)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 15.99, 'mean_duration_us': 3.198, 'median_duration_us': 3.126, 'std_dev_duration_us': 0.3572125417731018, 'min_duration_us': 2.765, 'max_duration_us': 3.687}]</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(3.2)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 3.2}]</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7758,12 +7758,12 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.951), 'mean_duration_us': np.float64(3.1902), 'median_duration_us': np.float64(3.006), 'std_dev_duration_us': np.float64(0.5261100265153668), 'min_duration_us': np.float64(2.605), 'max_duration_us': np.float64(3.928)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.951, 'mean_duration_us': 3.1902, 'median_duration_us': 3.006, 'std_dev_duration_us': 0.5261100265153668, 'min_duration_us': 2.605, 'max_duration_us': 3.928}]</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.19)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.19}]</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7825,12 +7825,12 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.391), 'mean_duration_us': np.float64(3.0782), 'median_duration_us': np.float64(2.926), 'std_dev_duration_us': np.float64(0.3955605642629204), 'min_duration_us': np.float64(2.726), 'max_duration_us': np.float64(3.848)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.391, 'mean_duration_us': 3.0782, 'median_duration_us': 2.926, 'std_dev_duration_us': 0.3955605642629204, 'min_duration_us': 2.726, 'max_duration_us': 3.848}]</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.08)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.08}]</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.030000000000001), 'mean_duration_us': np.float64(3.0060000000000002), 'median_duration_us': np.float64(2.926), 'std_dev_duration_us': np.float64(0.3119506371206829), 'min_duration_us': np.float64(2.725), 'max_duration_us': np.float64(3.568)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.030000000000001, 'mean_duration_us': 3.0060000000000002, 'median_duration_us': 2.926, 'std_dev_duration_us': 0.3119506371206829, 'min_duration_us': 2.725, 'max_duration_us': 3.568}]</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.01)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.01}]</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -8195,12 +8195,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA1024_LBSPPB128_LBSPPM0_LPA32_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT2_9_MO40_NTn1_NTA0_NTB4_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW2_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA2_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(55056.329), 'mean_duration_us': np.float64(458.80274166666663), 'median_duration_us': np.float64(459.394), 'std_dev_duration_us': np.float64(39.331859811628505), 'min_duration_us': np.float64(399.316), 'max_duration_us': np.float64(559.804)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA1024_LBSPPB128_LBSPPM0_LPA32_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT2_9_MO40_NTn1_NTA0_NTB4_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW2_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA2_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 55056.329, 'mean_duration_us': 458.80274166666663, 'median_duration_us': 459.394, 'std_dev_duration_us': 39.331859811628505, 'min_duration_us': 399.316, 'max_duration_us': 559.804}]</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(458.8)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x288x64_MI16x1...', 'stream': 0, 'mean_duration_us': 458.8}]</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -8330,12 +8330,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA2_GRVWB2_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB256_LBSPPM0_LPA4_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT8_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW8_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA8_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(40460.247), 'mean_duration_us': np.float64(337.16872500000005), 'median_duration_us': np.float64(331.821), 'std_dev_duration_us': np.float64(11.541609001032239), 'min_duration_us': np.float64(322.5), 'max_duration_us': np.float64(377.545)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA2_GRVWB2_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB256_LBSPPM0_LPA4_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT8_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW8_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA8_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 40460.247, 'mean_duration_us': 337.16872500000005, 'median_duration_us': 331.821, 'std_dev_duration_us': 11.541609001032239, 'min_duration_us': 322.5, 'max_duration_us': 377.545}]</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(337.17)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x128x32_MI16x...', 'stream': 0, 'mean_duration_us': 337.17}]</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 480, 'total_duration_us': np.float64(15205.791000000001), 'mean_duration_us': np.float64(31.678731250000002), 'median_duration_us': np.float64(31.2305), 'std_dev_duration_us': np.float64(1.291014259160901), 'min_duration_us': np.float64(29.667), 'max_duration_us': np.float64(38.488)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 480, 'total_duration_us': 15205.791000000001, 'mean_duration_us': 31.678731250000002, 'median_duration_us': 31.2305, 'std_dev_duration_us': 1.291014259160901, 'min_duration_us': 29.667, 'max_duration_us': 38.488}]</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(31.68)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': 31.68}]</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT5_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(12190.582999999999), 'mean_duration_us': np.float64(101.58819166666666), 'median_duration_us': np.float64(101.071), 'std_dev_duration_us': np.float64(2.68756934575908), 'min_duration_us': np.float64(96.981), 'max_duration_us': np.float64(110.813)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT5_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB4_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 12190.582999999999, 'mean_duration_us': 101.58819166666666, 'median_duration_us': 101.071, 'std_dev_duration_us': 2.68756934575908, 'min_duration_us': 96.981, 'max_duration_us': 110.813}]</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(101.59)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT160x128x64_MI16x...', 'stream': 0, 'mean_duration_us': 101.59}]</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -8735,12 +8735,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_9_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(11587.363), 'mean_duration_us': np.float64(96.56135833333333), 'median_duration_us': np.float64(95.899), 'std_dev_duration_us': np.float64(2.207858184590643), 'min_duration_us': np.float64(93.814), 'max_duration_us': np.float64(105.121)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_9_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 120, 'total_duration_us': 11587.363, 'mean_duration_us': 96.56135833333333, 'median_duration_us': 95.899, 'std_dev_duration_us': 2.207858184590643, 'min_duration_us': 93.814, 'max_duration_us': 105.121}]</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(96.56)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x288x64_MI16x...', 'stream': 0, 'mean_duration_us': 96.56}]</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 240, 'total_duration_us': np.float64(1649.788), 'mean_duration_us': np.float64(6.874116666666667), 'median_duration_us': np.float64(6.895), 'std_dev_duration_us': np.float64(0.40092175428075183), 'min_duration_us': np.float64(5.812), 'max_duration_us': np.float64(8.979)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 240, 'total_duration_us': 1649.788, 'mean_duration_us': 6.874116666666667, 'median_duration_us': 6.895, 'std_dev_duration_us': 0.40092175428075183, 'min_duration_us': 5.812, 'max_duration_us': 8.979}]</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.87)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.87}]</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 20, 'total_duration_us': np.float64(622.568), 'mean_duration_us': np.float64(31.1284), 'median_duration_us': np.float64(30.448999999999998), 'std_dev_duration_us': np.float64(1.3790227119231941), 'min_duration_us': np.float64(28.705), 'max_duration_us': np.float64(33.516)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB128_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_5_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB1_WSGRA0_WSGRB0_WS64_WG32_8_1', 'stream': 0, 'count': 20, 'total_duration_us': 622.568, 'mean_duration_us': 31.1284, 'median_duration_us': 30.448999999999998, 'std_dev_duration_us': 1.3790227119231941, 'min_duration_us': 28.705, 'max_duration_us': 33.516}]</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': np.float64(31.13)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT128x160x64_MI16x...', 'stream': 0, 'mean_duration_us': 31.13}]</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(514.482), 'mean_duration_us': np.float64(8.5747), 'median_duration_us': np.float64(8.6385), 'std_dev_duration_us': np.float64(0.3650420660691038), 'min_duration_us': np.float64(7.657), 'max_duration_us': np.float64(9.18)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 514.482, 'mean_duration_us': 8.5747, 'median_duration_us': 8.6385, 'std_dev_duration_us': 0.3650420660691038, 'min_duration_us': 7.657, 'max_duration_us': 9.18}]</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(8.57)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 8.57}]</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -9275,12 +9275,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(419.266), 'mean_duration_us': np.float64(6.987766666666667), 'median_duration_us': np.float64(6.895), 'std_dev_duration_us': np.float64(0.5233797654561062), 'min_duration_us': np.float64(5.973), 'max_duration_us': np.float64(8.658)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 419.266, 'mean_duration_us': 6.987766666666667, 'median_duration_us': 6.895, 'std_dev_duration_us': 0.5233797654561062, 'min_duration_us': 5.973, 'max_duration_us': 8.658}]</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.99)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.99}]</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -9410,12 +9410,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(384.538), 'mean_duration_us': np.float64(6.408966666666667), 'median_duration_us': np.float64(6.273), 'std_dev_duration_us': np.float64(0.7107715049312417), 'min_duration_us': np.float64(5.091), 'max_duration_us': np.float64(8.659)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD4_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 384.538, 'mean_duration_us': 6.408966666666667, 'median_duration_us': 6.273, 'std_dev_duration_us': 0.7107715049312417, 'min_duration_us': 5.091, 'max_duration_us': 8.659}]</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.41)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.41}]</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -9545,12 +9545,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(355.711), 'mean_duration_us': np.float64(5.928516666666667), 'median_duration_us': np.float64(5.812), 'std_dev_duration_us': np.float64(0.600517262912196), 'min_duration_us': np.float64(4.609), 'max_duration_us': np.float64(7.857)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 60, 'total_duration_us': 355.711, 'mean_duration_us': 5.928516666666667, 'median_duration_us': 5.812, 'std_dev_duration_us': 0.600517262912196, 'min_duration_us': 4.609, 'max_duration_us': 7.857}]</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(5.93)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 5.93}]</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -9680,12 +9680,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 15, 'total_duration_us': np.float64(69.66600000000001), 'mean_duration_us': np.float64(4.644400000000001), 'median_duration_us': np.float64(4.689), 'std_dev_duration_us': np.float64(0.2239195688932374), 'min_duration_us': np.float64(4.248), 'max_duration_us': np.float64(5.01)}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 15, 'total_duration_us': np.float64(282.956), 'mean_duration_us': np.float64(18.863733333333336), 'median_duration_us': np.float64(17.158), 'std_dev_duration_us': np.float64(7.847680162244695), 'min_duration_us': np.float64(15.234), 'max_duration_us': np.float64(47.99)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 15, 'total_duration_us': 69.66600000000001, 'mean_duration_us': 4.644400000000001, 'median_duration_us': 4.689, 'std_dev_duration_us': 0.2239195688932374, 'min_duration_us': 4.248, 'max_duration_us': 5.01}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 15, 'total_duration_us': 282.956, 'mean_duration_us': 18.863733333333336, 'median_duration_us': 17.158, 'std_dev_duration_us': 7.847680162244695, 'min_duration_us': 15.234, 'max_duration_us': 47.99}]</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.64)}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': np.float64(18.86)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.64}, {'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': 18.86}]</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB4_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(136.148), 'mean_duration_us': np.float64(27.229599999999998), 'median_duration_us': np.float64(27.262), 'std_dev_duration_us': np.float64(0.7408710009171641), 'min_duration_us': np.float64(26.139), 'max_duration_us': np.float64(28.104)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT4_4_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA4_VWB4_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 136.148, 'mean_duration_us': 27.229599999999998, 'median_duration_us': 27.262, 'std_dev_duration_us': 0.7408710009171641, 'min_duration_us': 26.139, 'max_duration_us': 28.104}]</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(27.23)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT256x64x64_MI16x1...', 'stream': 0, 'mean_duration_us': 27.23}]</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -9950,12 +9950,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(60.253), 'mean_duration_us': np.float64(12.0506), 'median_duration_us': np.float64(11.906), 'std_dev_duration_us': np.float64(0.49213477828741153), 'min_duration_us': np.float64(11.345), 'max_duration_us': np.float64(12.628)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16x1_SN_LDSB0_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA1_GRVWB4_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA128_LBSPPB128_LBSPPM0_LPA16_LPB4_LPM0_LRVW4_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB4_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS0_SPO0_SRVW0_SSO0_SVW4_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 60.253, 'mean_duration_us': 12.0506, 'median_duration_us': 11.906, 'std_dev_duration_us': 0.49213477828741153, 'min_duration_us': 11.345, 'max_duration_us': 12.628}]</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': np.float64(12.05)}]</t>
+          <t>[{'name': 'Cijk_Ailk_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x32_MI16x16...', 'stream': 0, 'mean_duration_us': 12.05}]</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -10085,12 +10085,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(58.97), 'mean_duration_us': np.float64(11.794), 'median_duration_us': np.float64(5.772), 'std_dev_duration_us': np.float64(12.405547646113815), 'min_duration_us': np.float64(5.411), 'max_duration_us': np.float64(36.603)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 58.97, 'mean_duration_us': 11.794, 'median_duration_us': 5.772, 'std_dev_duration_us': 12.405547646113815, 'min_duration_us': 5.411, 'max_duration_us': 36.603}]</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(11.79)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 11.79}]</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -10220,12 +10220,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB1_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB256_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(47.143), 'mean_duration_us': np.float64(9.4286), 'median_duration_us': np.float64(9.14), 'std_dev_duration_us': np.float64(0.45920696858823895), 'min_duration_us': np.float64(8.94), 'max_duration_us': np.float64(10.062)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB1_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA256_LBSPPB256_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB0_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG64_4_1', 'stream': 0, 'count': 5, 'total_duration_us': 47.143, 'mean_duration_us': 9.4286, 'median_duration_us': 9.14, 'std_dev_duration_us': 0.45920696858823895, 'min_duration_us': 8.94, 'max_duration_us': 10.062}]</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(9.43)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bjlk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT64x16x128_MI16x1...', 'stream': 0, 'mean_duration_us': 9.43}]</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -10355,12 +10355,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(31.067), 'mean_duration_us': np.float64(6.2134), 'median_duration_us': np.float64(6.093), 'std_dev_duration_us': np.float64(0.28699937282161453), 'min_duration_us': np.float64(6.013), 'max_duration_us': np.float64(6.775)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMB_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA0_NTB4_NTC0_NTD0_NTM0_NEPBS16_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 31.067, 'mean_duration_us': 6.2134, 'median_duration_us': 6.093, 'std_dev_duration_us': 0.28699937282161453, 'min_duration_us': 6.013, 'max_duration_us': 6.775}]</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.21)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.21}]</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -10490,12 +10490,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(30.145000000000003), 'mean_duration_us': np.float64(6.029000000000001), 'median_duration_us': np.float64(6.093), 'std_dev_duration_us': np.float64(0.2632732420888988), 'min_duration_us': np.float64(5.652), 'max_duration_us': np.float64(6.374)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x16x1_SN_LDSB1_AFC1_AFEM1_AFEM1_ASEM1_CLR1_CADS0_DTVA0_DTVB0_EPS0_FDSI0_GRPM1_GRVWA8_GRVWB8_GSUAMBSK_GLS0_ISA942_IU1_K1_LBSPPA512_LBSPPB512_LBSPPM0_LPA16_LPB16_LPM0_LRVW8_LWPMn1_MIAV0_MIWT1_1_MO40_NTn1_NTA4_NTB0_NTC0_NTD0_NTM0_NEPBS0_NLCA1_NLCB1_ONLL1_PGR2_PLR1_PKA1_SIA3_SS1_SPO0_SRVW0_SSO0_SVW1_SK0_SKXCCM0_TLDS1_ULSGRO0_USL1_UIOFGRO0_USFGROn1_VSn1_VWA1_VWB1_WSGRA0_WSGRB0_WS64_WG16_4_4', 'stream': 0, 'count': 5, 'total_duration_us': 30.145000000000003, 'mean_duration_us': 6.029000000000001, 'median_duration_us': 6.093, 'std_dev_duration_us': 0.2632732420888988, 'min_duration_us': 5.652, 'max_duration_us': 6.374}]</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': np.float64(6.03)}]</t>
+          <t>[{'name': 'Cijk_Alik_Bljk_B_BS_BH_Bias_HA_S_SAV_UserArgs_MT16x16x256_MI16x1...', 'stream': 0, 'mean_duration_us': 6.03}]</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -10875,12 +10875,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(219.258), 'mean_duration_us': np.float64(43.851600000000005), 'median_duration_us': np.float64(44.621), 'std_dev_duration_us': np.float64(1.7498733211292758), 'min_duration_us': np.float64(40.372), 'max_duration_us': np.float64(45.063)}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV0_ACED0_AF0EM1_AF1EM1_AMAS0_ASE_ASGT_ASLT_ASM_ASAE01_ASCE01_ASEM1_AAC0_BL1_BS1_CLR1_DTLA0_DTLB0_DTVA0_DTVB0_DVO0_ETSP_EPS1_ELFLR0_EMLL0_FSSC10_FL0_GLVWA2_GLVWB8_GRCGA1_GRCGB1_GRPM1_GRVWn1_GSU1_GSUASB_GLS0_ISA942_IU1_K1_KLA_LBSPPA1024_LBSPPB128_LPA16_LPB16_LDL1_LRVW8_LWPMn1_LDW0_FMA_MIAV0_MDA2_MO40_MMFSC_MKFGSU256_NTA0_NTB0_NTC0_NTD0_NEPBS0_NLCA1_NLCB1_ONLL1_OPLV0_PK0_PAP0_PGR1_PLR5_PKA0_SIA3_SLW1_SS0_SU16_SUM0_SUS512_SCIUI1_SPO0_SRVW0_SSO0_SVW4_SNLL0_TSGRA0_TSGRB0_TT1_64_TLDS1_UMLDSA0_UMLDSB1_U64SL1_USFGROn1_VAW1_VSn1_VW1_VWB1_VFLRP1_WSGRA0_WSGRB0_WS64_WG64_4_1_WGMn16', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(298.64099999999996), 'mean_duration_us': np.float64(59.728199999999994), 'median_duration_us': np.float64(60.458), 'std_dev_duration_us': np.float64(1.7082119774782034), 'min_duration_us': np.float64(56.328), 'max_duration_us': np.float64(60.899)}]</t>
+          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'count': 5, 'total_duration_us': 219.258, 'mean_duration_us': 43.851600000000005, 'median_duration_us': 44.621, 'std_dev_duration_us': 1.7498733211292758, 'min_duration_us': 40.372, 'max_duration_us': 45.063}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV0_ACED0_AF0EM1_AF1EM1_AMAS0_ASE_ASGT_ASLT_ASM_ASAE01_ASCE01_ASEM1_AAC0_BL1_BS1_CLR1_DTLA0_DTLB0_DTVA0_DTVB0_DVO0_ETSP_EPS1_ELFLR0_EMLL0_FSSC10_FL0_GLVWA2_GLVWB8_GRCGA1_GRCGB1_GRPM1_GRVWn1_GSU1_GSUASB_GLS0_ISA942_IU1_K1_KLA_LBSPPA1024_LBSPPB128_LPA16_LPB16_LDL1_LRVW8_LWPMn1_LDW0_FMA_MIAV0_MDA2_MO40_MMFSC_MKFGSU256_NTA0_NTB0_NTC0_NTD0_NEPBS0_NLCA1_NLCB1_ONLL1_OPLV0_PK0_PAP0_PGR1_PLR5_PKA0_SIA3_SLW1_SS0_SU16_SUM0_SUS512_SCIUI1_SPO0_SRVW0_SSO0_SVW4_SNLL0_TSGRA0_TSGRB0_TT1_64_TLDS1_UMLDSA0_UMLDSB1_U64SL1_USFGROn1_VAW1_VSn1_VW1_VWB1_VFLRP1_WSGRA0_WSGRB0_WS64_WG64_4_1_WGMn16', 'stream': 0, 'count': 5, 'total_duration_us': 298.64099999999996, 'mean_duration_us': 59.728199999999994, 'median_duration_us': 60.458, 'std_dev_duration_us': 1.7082119774782034, 'min_duration_us': 56.328, 'max_duration_us': 60.899}]</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'mean_duration_us': np.float64(43.85)}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV...', 'stream': 0, 'mean_duration_us': np.float64(59.73)}]</t>
+          <t>[{'name': 'Im2d2Col_v2', 'stream': 0, 'mean_duration_us': 43.85}, {'name': 'Cijk_Ailk_Bljk_BBS_BH_MT64x64x64_MI16x16x16x1_SN_1LDSB0_APM1_ABV...', 'stream': 0, 'mean_duration_us': 59.73}]</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -11176,12 +11176,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 360, 'total_duration_us': np.float64(6226.331), 'mean_duration_us': np.float64(17.29536388888889), 'median_duration_us': np.float64(15.795), 'std_dev_duration_us': np.float64(2.8259221431687647), 'min_duration_us': np.float64(12.067), 'max_duration_us': np.float64(23.693)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 360, 'total_duration_us': 6226.331, 'mean_duration_us': 17.29536388888889, 'median_duration_us': 15.795, 'std_dev_duration_us': 2.8259221431687647, 'min_duration_us': 12.067, 'max_duration_us': 23.693}]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(17.3)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 17.3}]</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -11292,12 +11292,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(3529.13), 'mean_duration_us': np.float64(29.40941666666667), 'median_duration_us': np.float64(29.1055), 'std_dev_duration_us': np.float64(1.2255553202754885), 'min_duration_us': np.float64(27.703), 'max_duration_us': np.float64(33.035)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 3529.13, 'mean_duration_us': 29.40941666666667, 'median_duration_us': 29.1055, 'std_dev_duration_us': 1.2255553202754885, 'min_duration_us': 27.703, 'max_duration_us': 33.035}]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(29.41)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 29.41}]</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -11412,12 +11412,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(1979.3850000000002), 'mean_duration_us': np.float64(16.494875), 'median_duration_us': np.float64(16.216), 'std_dev_duration_us': np.float64(0.889071627809031), 'min_duration_us': np.float64(14.673), 'max_duration_us': np.float64(18.802)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': 1979.3850000000002, 'mean_duration_us': 16.494875, 'median_duration_us': 16.216, 'std_dev_duration_us': 0.889071627809031, 'min_duration_us': 14.673, 'max_duration_us': 18.802}]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(16.49)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 16.49}]</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -11532,12 +11532,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(1138.047), 'mean_duration_us': np.float64(227.6094), 'median_duration_us': np.float64(225.036), 'std_dev_duration_us': np.float64(4.802322254909601), 'min_duration_us': np.float64(224.634), 'max_duration_us': np.float64(237.144)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 1138.047, 'mean_duration_us': 227.6094, 'median_duration_us': 225.036, 'std_dev_duration_us': 4.802322254909601, 'min_duration_us': 224.634, 'max_duration_us': 237.144}]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(227.61)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 227.61}]</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -11652,12 +11652,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(1136.443), 'mean_duration_us': np.float64(227.2886), 'median_duration_us': np.float64(226.238), 'std_dev_duration_us': np.float64(2.4922390415046425), 'min_duration_us': np.float64(224.715), 'max_duration_us': np.float64(230.528)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 1136.443, 'mean_duration_us': 227.2886, 'median_duration_us': 226.238, 'std_dev_duration_us': 2.4922390415046425, 'min_duration_us': 224.715, 'max_duration_us': 230.528}]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(227.29)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 227.29}]</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -11772,12 +11772,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 180, 'total_duration_us': np.float64(1058.8980000000001), 'mean_duration_us': np.float64(5.882766666666668), 'median_duration_us': np.float64(5.893), 'std_dev_duration_us': np.float64(0.3655466545691078), 'min_duration_us': np.float64(4.81), 'max_duration_us': np.float64(6.775)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 180, 'total_duration_us': 1058.8980000000001, 'mean_duration_us': 5.882766666666668, 'median_duration_us': 5.893, 'std_dev_duration_us': 0.3655466545691078, 'min_duration_us': 4.81, 'max_duration_us': 6.775}]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(5.88)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 5.88}]</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -11892,12 +11892,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(898.455), 'mean_duration_us': np.float64(179.691), 'median_duration_us': np.float64(189.314), 'std_dev_duration_us': np.float64(29.36311296167353), 'min_duration_us': np.float64(122.118), 'max_duration_us': np.float64(204.147)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 898.455, 'mean_duration_us': 179.691, 'median_duration_us': 189.314, 'std_dev_duration_us': 29.36311296167353, 'min_duration_us': 122.118, 'max_duration_us': 204.147}]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(179.69)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 179.69}]</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -12012,12 +12012,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(848.183), 'mean_duration_us': np.float64(169.6366), 'median_duration_us': np.float64(169.549), 'std_dev_duration_us': np.float64(0.12531017516545753), 'min_duration_us': np.float64(169.508), 'max_duration_us': np.float64(169.789)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 848.183, 'mean_duration_us': 169.6366, 'median_duration_us': 169.549, 'std_dev_duration_us': 0.12531017516545753, 'min_duration_us': 169.508, 'max_duration_us': 169.789}]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(169.64)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 169.64}]</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -12132,12 +12132,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(401.82699999999994), 'mean_duration_us': np.float64(6.697116666666665), 'median_duration_us': np.float64(6.775), 'std_dev_duration_us': np.float64(0.31499709478378085), 'min_duration_us': np.float64(5.973), 'max_duration_us': np.float64(7.296)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 60, 'total_duration_us': 401.82699999999994, 'mean_duration_us': 6.697116666666665, 'median_duration_us': 6.775, 'std_dev_duration_us': 0.31499709478378085, 'min_duration_us': 5.973, 'max_duration_us': 7.296}]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(6.7)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 6.7}]</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -12248,12 +12248,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(292.09), 'mean_duration_us': np.float64(4.868166666666666), 'median_duration_us': np.float64(4.77), 'std_dev_duration_us': np.float64(0.40604807460310527), 'min_duration_us': np.float64(4.128), 'max_duration_us': np.float64(5.852)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 292.09, 'mean_duration_us': 4.868166666666666, 'median_duration_us': 4.77, 'std_dev_duration_us': 0.40604807460310527, 'min_duration_us': 4.128, 'max_duration_us': 5.852}]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(4.87)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 4.87}]</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -12354,12 +12354,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(95.929), 'mean_duration_us': np.float64(9.5929), 'median_duration_us': np.float64(5.912), 'std_dev_duration_us': np.float64(9.921683712455259), 'min_duration_us': np.float64(4.049), 'max_duration_us': np.float64(38.407)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': 95.929, 'mean_duration_us': 9.5929, 'median_duration_us': 5.912, 'std_dev_duration_us': 9.921683712455259, 'min_duration_us': 4.049, 'max_duration_us': 38.407}]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(9.59)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 9.59}]</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -12474,12 +12474,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(75.429), 'mean_duration_us': np.float64(15.0858), 'median_duration_us': np.float64(14.823), 'std_dev_duration_us': np.float64(0.4742212142028235), 'min_duration_us': np.float64(14.603), 'max_duration_us': np.float64(15.755)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 75.429, 'mean_duration_us': 15.0858, 'median_duration_us': 14.823, 'std_dev_duration_us': 0.4742212142028235, 'min_duration_us': 14.603, 'max_duration_us': 15.755}]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(15.09)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 15.09}]</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(42.248), 'mean_duration_us': np.float64(4.2248), 'median_duration_us': np.float64(4.148999999999999), 'std_dev_duration_us': np.float64(0.4044254690298325), 'min_duration_us': np.float64(3.808), 'max_duration_us': np.float64(5.292)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'count': 10, 'total_duration_us': 42.248, 'mean_duration_us': 4.2248, 'median_duration_us': 4.148999999999999, 'std_dev_duration_us': 0.4044254690298325, 'min_duration_us': 3.808, 'max_duration_us': 5.292}]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(4.22)}]</t>
+          <t>[{'name': 'Memcpy HtoD (Host -&gt; Device)', 'stream': 0, 'mean_duration_us': 4.22}]</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -12714,12 +12714,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(27.898), 'mean_duration_us': np.float64(5.5796), 'median_duration_us': np.float64(5.572), 'std_dev_duration_us': np.float64(0.0162061716639064), 'min_duration_us': np.float64(5.571), 'max_duration_us': np.float64(5.612)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 27.898, 'mean_duration_us': 5.5796, 'median_duration_us': 5.572, 'std_dev_duration_us': 0.0162061716639064, 'min_duration_us': 5.571, 'max_duration_us': 5.612}]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(5.58)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 5.58}]</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -12820,12 +12820,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(26.455), 'mean_duration_us': np.float64(5.2909999999999995), 'median_duration_us': np.float64(5.251), 'std_dev_duration_us': np.float64(0.30444835358398653), 'min_duration_us': np.float64(4.93), 'max_duration_us': np.float64(5.732)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#11}::operator()() const::{lambda(bool)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 26.455, 'mean_duration_us': 5.2909999999999995, 'median_duration_us': 5.251, 'std_dev_duration_us': 0.30444835358398653, 'min_duration_us': 4.93, 'max_duration_us': 5.732}]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(5.29)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 5.29}]</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -12926,12 +12926,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.814), 'mean_duration_us': np.float64(5.1628), 'median_duration_us': np.float64(5.171), 'std_dev_duration_us': np.float64(0.1816726726835932), 'min_duration_us': np.float64(4.89), 'max_duration_us': np.float64(5.451)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#3}::operator()() const::{lambda(int)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 25.814, 'mean_duration_us': 5.1628, 'median_duration_us': 5.171, 'std_dev_duration_us': 0.1816726726835932, 'min_duration_us': 4.89, 'max_duration_us': 5.451}]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(5.16)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 5.16}]</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -13046,12 +13046,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(25.655), 'mean_duration_us': np.float64(5.131), 'median_duration_us': np.float64(5.131), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(5.131), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 25.655, 'mean_duration_us': 5.131, 'median_duration_us': 5.131, 'std_dev_duration_us': 0.0, 'min_duration_us': 5.131, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(5.13)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 5.13}]</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.21), 'mean_duration_us': np.float64(4.8420000000000005), 'median_duration_us': np.float64(4.529), 'std_dev_duration_us': np.float64(0.4251691428125987), 'min_duration_us': np.float64(4.489), 'max_duration_us': np.float64(5.491)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::bfloat16_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda(float)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.21, 'mean_duration_us': 4.8420000000000005, 'median_duration_us': 4.529, 'std_dev_duration_us': 0.4251691428125987, 'min_duration_us': 4.489, 'max_duration_us': 5.491}]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bf...', 'stream': 0, 'mean_duration_us': np.float64(4.84)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::bf...', 'stream': 0, 'mean_duration_us': 4.84}]</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -13286,12 +13286,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.85), 'mean_duration_us': np.float64(4.7700000000000005), 'median_duration_us': np.float64(4.61), 'std_dev_duration_us': np.float64(0.3218459258713711), 'min_duration_us': np.float64(4.449), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'count': 5, 'total_duration_us': 23.85, 'mean_duration_us': 4.7700000000000005, 'median_duration_us': 4.61, 'std_dev_duration_us': 0.3218459258713711, 'min_duration_us': 4.449, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'mean_duration_us': np.float64(4.77)}]</t>
+          <t>[{'name': 'Memcpy DtoD (Device -&gt; Device)', 'stream': 0, 'mean_duration_us': 4.77}]</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -13406,12 +13406,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.769), 'mean_duration_us': np.float64(4.7538), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.2427059125773412), 'min_duration_us': np.float64(4.529), 'max_duration_us': np.float64(5.051)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#12}::operator()() const::{lambda(c10::BFloat16)#1} const&amp;)::{lambda(int)#2})', 'stream': 0, 'count': 5, 'total_duration_us': 23.769, 'mean_duration_us': 4.7538, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.2427059125773412, 'min_duration_us': 4.529, 'max_duration_us': 5.051}]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.75)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;128, 4, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.75}]</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -13526,12 +13526,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.368999999999996), 'mean_duration_us': np.float64(4.673799999999999), 'median_duration_us': np.float64(4.73), 'std_dev_duration_us': np.float64(0.19056169604618856), 'min_duration_us': np.float64(4.449), 'max_duration_us': np.float64(4.89)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1}&gt;(at::TensorIteratorBase&amp;, at::native::direct_copy_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#3}::operator()() const::{lambda()#7}::operator()() const::{lambda(float)#1} const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 23.368999999999996, 'mean_duration_us': 4.673799999999999, 'median_duration_us': 4.73, 'std_dev_duration_us': 0.19056169604618856, 'min_duration_us': 4.449, 'max_duration_us': 4.89}]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.67)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.67}]</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -13646,12 +13646,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.929000000000002), 'mean_duration_us': np.float64(4.585800000000001), 'median_duration_us': np.float64(3.647), 'std_dev_duration_us': np.float64(2.16479425350309), 'min_duration_us': np.float64(2.525), 'max_duration_us': np.float64(8.739)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 22.929000000000002, 'mean_duration_us': 4.585800000000001, 'median_duration_us': 3.647, 'std_dev_duration_us': 2.16479425350309, 'min_duration_us': 2.525, 'max_duration_us': 8.739}]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(4.59)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 4.59}]</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -13766,12 +13766,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(17.916), 'mean_duration_us': np.float64(3.5832), 'median_duration_us': np.float64(3.407), 'std_dev_duration_us': np.float64(0.6221727734319463), 'min_duration_us': np.float64(2.886), 'max_duration_us': np.float64(4.609)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 17.916, 'mean_duration_us': 3.5832, 'median_duration_us': 3.407, 'std_dev_duration_us': 0.6221727734319463, 'min_duration_us': 2.886, 'max_duration_us': 4.609}]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.58)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.58}]</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -13882,12 +13882,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.99), 'mean_duration_us': np.float64(3.198), 'median_duration_us': np.float64(3.126), 'std_dev_duration_us': np.float64(0.3572125417731018), 'min_duration_us': np.float64(2.765), 'max_duration_us': np.float64(3.687)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::sigmoid_kernel_cuda(at::TensorIteratorBase&amp;)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 15.99, 'mean_duration_us': 3.198, 'median_duration_us': 3.126, 'std_dev_duration_us': 0.3572125417731018, 'min_duration_us': 2.765, 'max_duration_us': 3.687}]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': np.float64(3.2)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::si...', 'stream': 0, 'mean_duration_us': 3.2}]</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -14002,12 +14002,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.951), 'mean_duration_us': np.float64(3.1902), 'median_duration_us': np.float64(3.006), 'std_dev_duration_us': np.float64(0.5261100265153668), 'min_duration_us': np.float64(2.605), 'max_duration_us': np.float64(3.928)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.951, 'mean_duration_us': 3.1902, 'median_duration_us': 3.006, 'std_dev_duration_us': 0.5261100265153668, 'min_duration_us': 2.605, 'max_duration_us': 3.928}]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.19)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.19}]</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -14122,12 +14122,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.391), 'mean_duration_us': np.float64(3.0782), 'median_duration_us': np.float64(2.926), 'std_dev_duration_us': np.float64(0.3955605642629204), 'min_duration_us': np.float64(2.726), 'max_duration_us': np.float64(3.848)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.391, 'mean_duration_us': 3.0782, 'median_duration_us': 2.926, 'std_dev_duration_us': 0.3955605642629204, 'min_duration_us': 2.726, 'max_duration_us': 3.848}]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.08)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.08}]</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -14242,12 +14242,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(15.030000000000001), 'mean_duration_us': np.float64(3.0060000000000002), 'median_duration_us': np.float64(2.926), 'std_dev_duration_us': np.float64(0.3119506371206829), 'min_duration_us': np.float64(2.725), 'max_duration_us': np.float64(3.568)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'count': 5, 'total_duration_us': 15.030000000000001, 'mean_duration_us': 3.0060000000000002, 'median_duration_us': 2.926, 'std_dev_duration_us': 0.3119506371206829, 'min_duration_us': 2.725, 'max_duration_us': 3.568}]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': np.float64(3.01)}]</t>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Host)', 'stream': 0, 'mean_duration_us': 3.01}]</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -14303,28 +14303,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1, 3, 1008, 1008)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>('float', None)</t>
+          <t>('c10::BFloat16', 'float')</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>(3048192, 1016064, 1008, 1)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(3048192, 1016064, 1008, 1)</t>
+        </is>
+      </c>
       <c r="F29" t="n">
-        <v>1e-09</v>
+        <v>0.003048192</v>
       </c>
       <c r="G29" t="n">
-        <v>7.62939453125e-06</v>
+        <v>17.44189453125</v>
       </c>
       <c r="H29" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -14344,17 +14348,17 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[[], [], []]</t>
+          <t>[[1, 3, 1008, 1008], [1, 3, 1008, 1008], []]</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>['float', 'double', 'Scalar']</t>
+          <t>['c10::BFloat16', 'float', 'Scalar']</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>[[], [], []]</t>
+          <t>[[3048192, 1016064, 1008, 1], [3048192, 1016064, 1008, 1], []]</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -14384,43 +14388,39 @@
         <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>24253</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aten::copy_</t>
+          <t>aten::sigmoid</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(1, 3, 1008, 1008)</t>
+          <t>(1, 5184)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'float')</t>
+          <t>('float', None)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(3048192, 1016064, 1008, 1)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>(3048192, 1016064, 1008, 1)</t>
-        </is>
-      </c>
+          <t>(5184, 1)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.003048192</v>
+        <v>5.184e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>17.44189453125</v>
+        <v>0.03955078125</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -14440,22 +14440,22 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[[1, 3, 1008, 1008], [1, 3, 1008, 1008], []]</t>
+          <t>[[1, 5184]]</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'float', 'Scalar']</t>
+          <t>['float']</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>[[3048192, 1016064, 1008, 1], [3048192, 1016064, 1008, 1], []]</t>
+          <t>[[5184, 1]]</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>['', '', 'False']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="Y30" t="n">
@@ -14480,7 +14480,7 @@
         <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>24168</v>
       </c>
     </row>
     <row r="31">
@@ -14491,29 +14491,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(1, 1, 4)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'int')</t>
+          <t>('c10::BFloat16', None)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(4, 4, 1)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>(4, 4, 1)</t>
-        </is>
-      </c>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>4e-09</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+        <v>1e-09</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.814697265625e-06</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.25</v>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -14532,17 +14532,17 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[[1, 1, 4], [1, 1, 4], []]</t>
+          <t>[[], [], []]</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'int', 'Scalar']</t>
+          <t>['c10::BFloat16', 'double', 'Scalar']</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>[[4, 4, 1], [4, 4, 1], []]</t>
+          <t>[[], [], []]</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -14569,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="n">
-        <v>24239</v>
+        <v>24182</v>
       </c>
     </row>
     <row r="32">
@@ -14583,29 +14583,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1, 1, 4)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', None)</t>
+          <t>('c10::BFloat16', 'int')</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>()</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>(4, 4, 1)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>(4, 4, 1)</t>
+        </is>
+      </c>
       <c r="F32" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3.814697265625e-06</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.25</v>
-      </c>
+        <v>4e-09</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -14624,17 +14624,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[[], [], []]</t>
+          <t>[[1, 1, 4], [1, 1, 4], []]</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'double', 'Scalar']</t>
+          <t>['c10::BFloat16', 'int', 'Scalar']</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>[[], [], []]</t>
+          <t>[[4, 4, 1], [4, 4, 1], []]</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -14661,21 +14661,21 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AF32" t="n">
-        <v>24182</v>
+        <v>24239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aten::sigmoid</t>
+          <t>aten::copy_</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(1, 5184)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -14685,15 +14685,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(5184, 1)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>5.184e-06</v>
+        <v>1e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03955078125</v>
+        <v>7.62939453125e-06</v>
       </c>
       <c r="H33" t="n">
         <v>0.125</v>
@@ -14716,22 +14716,22 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[[1, 5184]]</t>
+          <t>[[], [], []]</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>['float']</t>
+          <t>['float', 'double', 'Scalar']</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>[[5184, 1]]</t>
+          <t>[[], [], []]</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['', '', 'False']</t>
         </is>
       </c>
       <c r="Y33" t="n">
@@ -14756,7 +14756,7 @@
         <v>5</v>
       </c>
       <c r="AF33" t="n">
-        <v>24168</v>
+        <v>24253</v>
       </c>
     </row>
   </sheetData>
@@ -15023,12 +15023,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(4463.737999999999), 'mean_duration_us': np.float64(37.19781666666666), 'median_duration_us': np.float64(37.084), 'std_dev_duration_us': np.float64(4.0768960782751815), 'min_duration_us': np.float64(28.985), 'max_duration_us': np.float64(50.435)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 4463.737999999999, 'mean_duration_us': 37.19781666666666, 'median_duration_us': 37.084, 'std_dev_duration_us': 4.0768960782751815, 'min_duration_us': 28.985, 'max_duration_us': 50.435}]</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(37.2)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 37.2}]</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -15149,12 +15149,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(3008.275), 'mean_duration_us': np.float64(25.068958333333335), 'median_duration_us': np.float64(24.8965), 'std_dev_duration_us': np.float64(2.5754997003683036), 'min_duration_us': np.float64(19.765), 'max_duration_us': np.float64(33.957)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 3008.275, 'mean_duration_us': 25.068958333333335, 'median_duration_us': 24.8965, 'std_dev_duration_us': 2.5754997003683036, 'min_duration_us': 19.765, 'max_duration_us': 33.957}]</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(25.07)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 25.07}]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -15275,12 +15275,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 245, 'total_duration_us': np.float64(2450.014), 'mean_duration_us': np.float64(10.000057142857143), 'median_duration_us': np.float64(9.942), 'std_dev_duration_us': np.float64(0.8502293788941274), 'min_duration_us': np.float64(8.218), 'max_duration_us': np.float64(13.429)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 245, 'total_duration_us': 2450.014, 'mean_duration_us': 10.000057142857143, 'median_duration_us': 9.942, 'std_dev_duration_us': 0.8502293788941274, 'min_duration_us': 8.218, 'max_duration_us': 13.429}]</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(10.0)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 10.0}]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -15401,12 +15401,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(868.479), 'mean_duration_us': np.float64(7.237325), 'median_duration_us': np.float64(7.175), 'std_dev_duration_us': np.float64(0.5774263757181518), 'min_duration_us': np.float64(6.414), 'max_duration_us': np.float64(10.503)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 120, 'total_duration_us': 868.479, 'mean_duration_us': 7.237325, 'median_duration_us': 7.175, 'std_dev_duration_us': 0.5774263757181518, 'min_duration_us': 6.414, 'max_duration_us': 10.503}]</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(7.24)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 7.24}]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -15527,12 +15527,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 125, 'total_duration_us': np.float64(572.1489999999999), 'mean_duration_us': np.float64(4.577191999999999), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.3315058659149187), 'min_duration_us': np.float64(4.048), 'max_duration_us': np.float64(5.452)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 125, 'total_duration_us': 572.1489999999999, 'mean_duration_us': 4.577191999999999, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.3315058659149187, 'min_duration_us': 4.048, 'max_duration_us': 5.452}]</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.58)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.58}]</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -15653,12 +15653,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': np.float64(555.2339999999999), 'mean_duration_us': np.float64(4.626949999999999), 'median_duration_us': np.float64(4.569), 'std_dev_duration_us': np.float64(0.3686557755323161), 'min_duration_us': np.float64(4.008), 'max_duration_us': np.float64(5.612)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 120, 'total_duration_us': 555.2339999999999, 'mean_duration_us': 4.626949999999999, 'median_duration_us': 4.569, 'std_dev_duration_us': 0.3686557755323161, 'min_duration_us': 4.008, 'max_duration_us': 5.612}]</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.63)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.63}]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -15779,12 +15779,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(308.848), 'mean_duration_us': np.float64(5.147466666666667), 'median_duration_us': np.float64(5.051), 'std_dev_duration_us': np.float64(0.35748615202394757), 'min_duration_us': np.float64(4.369), 'max_duration_us': np.float64(6.093)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 308.848, 'mean_duration_us': 5.147466666666667, 'median_duration_us': 5.051, 'std_dev_duration_us': 0.35748615202394757, 'min_duration_us': 4.369, 'max_duration_us': 6.093}]</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(5.15)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 5.15}]</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -15905,12 +15905,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(291.33199999999994), 'mean_duration_us': np.float64(4.855533333333332), 'median_duration_us': np.float64(4.73), 'std_dev_duration_us': np.float64(0.32905027309245954), 'min_duration_us': np.float64(4.289), 'max_duration_us': np.float64(5.532)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 291.33199999999994, 'mean_duration_us': 4.855533333333332, 'median_duration_us': 4.73, 'std_dev_duration_us': 0.32905027309245954, 'min_duration_us': 4.289, 'max_duration_us': 5.532}]</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(4.86)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 4.86}]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -16031,12 +16031,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': np.float64(291.32899999999995), 'mean_duration_us': np.float64(4.855483333333333), 'median_duration_us': np.float64(4.69), 'std_dev_duration_us': np.float64(0.34405471908145985), 'min_duration_us': np.float64(4.209), 'max_duration_us': np.float64(5.773)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 60, 'total_duration_us': 291.32899999999995, 'mean_duration_us': 4.855483333333333, 'median_duration_us': 4.69, 'std_dev_duration_us': 0.34405471908145985, 'min_duration_us': 4.209, 'max_duration_us': 5.773}]</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': np.float64(4.86)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::AU...', 'stream': 0, 'mean_duration_us': 4.86}]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -16157,12 +16157,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(59.051), 'mean_duration_us': np.float64(11.8102), 'median_duration_us': np.float64(11.826), 'std_dev_duration_us': np.float64(0.3424951970466156), 'min_duration_us': np.float64(11.345), 'max_duration_us': np.float64(12.387)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 59.051, 'mean_duration_us': 11.8102, 'median_duration_us': 11.826, 'std_dev_duration_us': 0.3424951970466156, 'min_duration_us': 11.345, 'max_duration_us': 12.387}]</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(11.81)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 11.81}]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -16283,12 +16283,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(49.509), 'mean_duration_us': np.float64(9.9018), 'median_duration_us': np.float64(9.662), 'std_dev_duration_us': np.float64(0.483819966516472), 'min_duration_us': np.float64(9.26), 'max_duration_us': np.float64(10.544)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 49.509, 'mean_duration_us': 9.9018, 'median_duration_us': 9.662, 'std_dev_duration_us': 0.483819966516472, 'min_duration_us': 9.26, 'max_duration_us': 10.544}]</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(9.9)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 9.9}]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 10, 'total_duration_us': np.float64(49.504000000000005), 'mean_duration_us': np.float64(4.9504), 'median_duration_us': np.float64(5.091), 'std_dev_duration_us': np.float64(0.4543756595593562), 'min_duration_us': np.float64(4.088), 'max_duration_us': np.float64(5.491)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 10, 'total_duration_us': 49.504000000000005, 'mean_duration_us': 4.9504, 'median_duration_us': 5.091, 'std_dev_duration_us': 0.4543756595593562, 'min_duration_us': 4.088, 'max_duration_us': 5.491}]</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.95)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.95}]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -16535,12 +16535,12 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.131), 'mean_duration_us': np.float64(4.8262), 'median_duration_us': np.float64(4.69), 'std_dev_duration_us': np.float64(0.2316759806281177), 'min_duration_us': np.float64(4.61), 'max_duration_us': np.float64(5.251)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;long&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.131, 'mean_duration_us': 4.8262, 'median_duration_us': 4.69, 'std_dev_duration_us': 0.2316759806281177, 'min_duration_us': 4.61, 'max_duration_us': 5.251}]</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.83)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.83}]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -16661,12 +16661,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(24.011000000000003), 'mean_duration_us': np.float64(4.802200000000001), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.5108465131524341), 'min_duration_us': np.float64(4.41), 'max_duration_us': np.float64(5.812)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 24.011000000000003, 'mean_duration_us': 4.802200000000001, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.5108465131524341, 'min_duration_us': 4.41, 'max_duration_us': 5.812}]</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(4.8)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 4.8}]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -16787,12 +16787,12 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.931), 'mean_duration_us': np.float64(4.7862), 'median_duration_us': np.float64(4.61), 'std_dev_duration_us': np.float64(0.5367853947342459), 'min_duration_us': np.float64(4.249), 'max_duration_us': np.float64(5.812)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1}&gt;(int, at::native::gpu_kernel_impl_nocast&lt;at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; &gt;(at::TensorIteratorBase&amp;, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::DivFunctor&lt;c10::BFloat16&gt; &gt; const&amp;)::{lambda(int, bool)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 23.931, 'mean_duration_us': 4.7862, 'median_duration_us': 4.61, 'std_dev_duration_us': 0.5367853947342459, 'min_duration_us': 4.249, 'max_duration_us': 5.812}]</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': np.float64(4.79)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel_manual_unroll&lt;128, 8, at::na...', 'stream': 0, 'mean_duration_us': 4.79}]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -16913,12 +16913,12 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.21), 'mean_duration_us': np.float64(4.642), 'median_duration_us': np.float64(4.57), 'std_dev_duration_us': np.float64(0.28190920524168783), 'min_duration_us': np.float64(4.329), 'max_duration_us': np.float64(5.011)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.21, 'mean_duration_us': 4.642, 'median_duration_us': 4.57, 'std_dev_duration_us': 0.28190920524168783, 'min_duration_us': 4.329, 'max_duration_us': 5.011}]</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.64)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.64}]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -17039,12 +17039,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.167), 'mean_duration_us': np.float64(4.6334), 'median_duration_us': np.float64(4.489), 'std_dev_duration_us': np.float64(0.36638482501326386), 'min_duration_us': np.float64(4.128), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.167, 'mean_duration_us': 4.6334, 'median_duration_us': 4.489, 'std_dev_duration_us': 0.36638482501326386, 'min_duration_us': 4.128, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.63)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.63}]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -17165,12 +17165,12 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(23.087000000000003), 'mean_duration_us': np.float64(4.617400000000001), 'median_duration_us': np.float64(4.569), 'std_dev_duration_us': np.float64(0.2909203327373321), 'min_duration_us': np.float64(4.328), 'max_duration_us': np.float64(5.171)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 23.087000000000003, 'mean_duration_us': 4.617400000000001, 'median_duration_us': 4.569, 'std_dev_duration_us': 0.2909203327373321, 'min_duration_us': 4.328, 'max_duration_us': 5.171}]</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.62)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.62}]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -17291,12 +17291,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.928), 'mean_duration_us': np.float64(4.5856), 'median_duration_us': np.float64(4.329), 'std_dev_duration_us': np.float64(0.4130828488330158), 'min_duration_us': np.float64(4.169), 'max_duration_us': np.float64(5.291)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1}&gt;(int, at::native::gpu_kernel_impl&lt;at::native::CUDAFunctor_add&lt;float&gt; &gt;(at::TensorIteratorBase&amp;, at::native::CUDAFunctor_add&lt;float&gt; const&amp;)::{lambda(int)#1})', 'stream': 0, 'count': 5, 'total_duration_us': 22.928, 'mean_duration_us': 4.5856, 'median_duration_us': 4.329, 'std_dev_duration_us': 0.4130828488330158, 'min_duration_us': 4.169, 'max_duration_us': 5.291}]</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': np.float64(4.59)}]</t>
+          <t>[{'name': 'void at::native::elementwise_kernel&lt;512, 1, at::native::gpu_kern...', 'stream': 0, 'mean_duration_us': 4.59}]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -17417,12 +17417,12 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(22.487000000000002), 'mean_duration_us': np.float64(4.497400000000001), 'median_duration_us': np.float64(4.369), 'std_dev_duration_us': np.float64(0.3635748066079388), 'min_duration_us': np.float64(4.048), 'max_duration_us': np.float64(5.131)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::CUDAFunctorOnSelf_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 22.487000000000002, 'mean_duration_us': 4.497400000000001, 'median_duration_us': 4.369, 'std_dev_duration_us': 0.3635748066079388, 'min_duration_us': 4.048, 'max_duration_us': 5.131}]</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': np.float64(4.5)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::CU...', 'stream': 0, 'mean_duration_us': 4.5}]</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -17543,12 +17543,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': np.float64(21.884999999999998), 'mean_duration_us': np.float64(4.377), 'median_duration_us': np.float64(4.329), 'std_dev_duration_us': np.float64(0.3979557764375334), 'min_duration_us': np.float64(3.848), 'max_duration_us': np.float64(4.97)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::BinaryFunctor&lt;c10::BFloat16, c10::BFloat16, c10::BFloat16, at::native::binary_internal::MulFunctor&lt;float&gt; &gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 0, 'count': 5, 'total_duration_us': 21.884999999999998, 'mean_duration_us': 4.377, 'median_duration_us': 4.329, 'std_dev_duration_us': 0.3979557764375334, 'min_duration_us': 3.848, 'max_duration_us': 4.97}]</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': np.float64(4.38)}]</t>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;8, at::native::Bi...', 'stream': 0, 'mean_duration_us': 4.38}]</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -17599,7 +17599,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>aten::add</t>
+          <t>aten::mul</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -17609,12 +17609,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(1, 5184)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'c10::BFloat16', None)</t>
+          <t>('c10::BFloat16', 'double', None)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -17624,7 +17624,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(5184, 1)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -17632,10 +17632,10 @@
         <v>5.184e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0296630859375</v>
+        <v>0.01978302001953125</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2499035865792518</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -17655,22 +17655,22 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>[[1, 5184], [1, 5184], []]</t>
+          <t>[[1, 5184], []]</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
+          <t>['c10::BFloat16', 'double']</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>[[20736, 4], [5184, 1], []]</t>
+          <t>[[20736, 4], []]</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>['', '', '1']</t>
+          <t>['', '']</t>
         </is>
       </c>
       <c r="AA23" t="n">
@@ -17692,49 +17692,53 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>24195</v>
+        <v>24178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aten::mul</t>
+          <t>aten::add</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(1, 5184, 4)</t>
+          <t>(1, 5184)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(1, 1, 4)</t>
+          <t>(1, 5184)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'int', None)</t>
+          <t>('c10::BFloat16', 'c10::BFloat16', None)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(20736, 4, 1)</t>
+          <t>(20736, 4)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(4, 4, 1)</t>
+          <t>(5184, 1)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>2.0736e-05</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>5.184e-06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0296630859375</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1666666666666667</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -17753,22 +17757,22 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>[[1, 5184, 4], [1, 1, 4]]</t>
+          <t>[[1, 5184], [1, 5184], []]</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'int']</t>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>[[20736, 4, 1], [4, 4, 1]]</t>
+          <t>[[20736, 4], [5184, 1], []]</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>['', '']</t>
+          <t>['', '', '1']</t>
         </is>
       </c>
       <c r="AA24" t="n">
@@ -17790,10 +17794,10 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>24235</v>
+        <v>24195</v>
       </c>
     </row>
     <row r="25">
@@ -17804,39 +17808,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(1, 5184)</t>
+          <t>(1, 5184, 4)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1, 1, 4)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>('c10::BFloat16', 'double', None)</t>
+          <t>('c10::BFloat16', 'int', None)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(20736, 4)</t>
+          <t>(20736, 4, 1)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(4, 4, 1)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>5.184e-06</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.01978302001953125</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2499035865792518</v>
-      </c>
+        <v>2.0736e-05</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -17855,17 +17855,17 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>[[1, 5184], []]</t>
+          <t>[[1, 5184, 4], [1, 1, 4]]</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>['c10::BFloat16', 'double']</t>
+          <t>['c10::BFloat16', 'int']</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>[[20736, 4], []]</t>
+          <t>[[20736, 4, 1], [4, 4, 1]]</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -17892,10 +17892,10 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
-        <v>24178</v>
+        <v>24235</v>
       </c>
     </row>
   </sheetData>
